--- a/BackTest/2019-10-15 BackTest MTL.xlsx
+++ b/BackTest/2019-10-15 BackTest MTL.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>8</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-50</v>
+      </c>
       <c r="L12" t="n">
         <v>406.2</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>8</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>405.8</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>9</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-60</v>
+      </c>
       <c r="L14" t="n">
         <v>405.7</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>9</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-60</v>
+      </c>
       <c r="L15" t="n">
         <v>405.4</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>10</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-50</v>
+      </c>
       <c r="L16" t="n">
         <v>405</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>11</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-20</v>
+      </c>
       <c r="L17" t="n">
         <v>404.9</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>13</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L18" t="n">
         <v>405</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>14</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L19" t="n">
         <v>405</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>16</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L20" t="n">
         <v>404.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>16</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>404.8</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>16</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>404.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>17</v>
       </c>
       <c r="K23" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>404.9</v>
@@ -1466,7 +1488,7 @@
         <v>18</v>
       </c>
       <c r="K24" t="n">
-        <v>-12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L24" t="n">
         <v>404.8</v>
@@ -1515,7 +1537,7 @@
         <v>21</v>
       </c>
       <c r="K25" t="n">
-        <v>-5.88235294117647</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L25" t="n">
         <v>405</v>
@@ -1564,7 +1586,7 @@
         <v>23</v>
       </c>
       <c r="K26" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>405.1</v>
@@ -1711,7 +1733,7 @@
         <v>30</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L29" t="n">
         <v>405.4</v>
@@ -1760,7 +1782,7 @@
         <v>31</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L30" t="n">
         <v>405.5</v>
@@ -1809,7 +1831,7 @@
         <v>32</v>
       </c>
       <c r="K31" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>405.5</v>
@@ -1860,7 +1882,7 @@
         <v>33</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>405.6</v>
@@ -1911,7 +1933,7 @@
         <v>33</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L33" t="n">
         <v>405.6</v>
@@ -1962,7 +1984,7 @@
         <v>34</v>
       </c>
       <c r="K34" t="n">
-        <v>-4</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L34" t="n">
         <v>405.6</v>
@@ -2013,7 +2035,7 @@
         <v>34</v>
       </c>
       <c r="K35" t="n">
-        <v>-4</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L35" t="n">
         <v>405.3</v>
@@ -2064,7 +2086,7 @@
         <v>34</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L36" t="n">
         <v>405.2</v>
@@ -2115,7 +2137,7 @@
         <v>34</v>
       </c>
       <c r="K37" t="n">
-        <v>-4.347826086956522</v>
+        <v>-50</v>
       </c>
       <c r="L37" t="n">
         <v>404.7</v>
@@ -2166,7 +2188,7 @@
         <v>35</v>
       </c>
       <c r="K38" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L38" t="n">
         <v>404.6</v>
@@ -2217,7 +2239,7 @@
         <v>36</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L39" t="n">
         <v>404.6</v>
@@ -2268,7 +2290,7 @@
         <v>36</v>
       </c>
       <c r="K40" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L40" t="n">
         <v>404.7</v>
@@ -2319,7 +2341,7 @@
         <v>37</v>
       </c>
       <c r="K41" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>404.8</v>
@@ -2370,7 +2392,7 @@
         <v>39</v>
       </c>
       <c r="K42" t="n">
-        <v>-4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>404.6</v>
@@ -2421,7 +2443,7 @@
         <v>44</v>
       </c>
       <c r="K43" t="n">
-        <v>11.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="L43" t="n">
         <v>404.9</v>
@@ -2472,7 +2494,7 @@
         <v>44</v>
       </c>
       <c r="K44" t="n">
-        <v>15.38461538461539</v>
+        <v>40</v>
       </c>
       <c r="L44" t="n">
         <v>405.3</v>
@@ -2523,7 +2545,7 @@
         <v>44</v>
       </c>
       <c r="K45" t="n">
-        <v>4.347826086956522</v>
+        <v>40</v>
       </c>
       <c r="L45" t="n">
         <v>405.7</v>
@@ -2574,7 +2596,7 @@
         <v>44</v>
       </c>
       <c r="K46" t="n">
-        <v>14.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="L46" t="n">
         <v>406.1</v>
@@ -2625,7 +2647,7 @@
         <v>45</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L47" t="n">
         <v>406.6</v>
@@ -2676,7 +2698,7 @@
         <v>46</v>
       </c>
       <c r="K48" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L48" t="n">
         <v>407.1</v>
@@ -2727,7 +2749,7 @@
         <v>48</v>
       </c>
       <c r="K49" t="n">
-        <v>11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L49" t="n">
         <v>407.3</v>
@@ -2778,7 +2800,7 @@
         <v>50</v>
       </c>
       <c r="K50" t="n">
-        <v>26.31578947368421</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L50" t="n">
         <v>407.7</v>
@@ -2829,7 +2851,7 @@
         <v>50</v>
       </c>
       <c r="K51" t="n">
-        <v>33.33333333333333</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L51" t="n">
         <v>408.2</v>
@@ -2880,7 +2902,7 @@
         <v>50</v>
       </c>
       <c r="K52" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>408.9</v>
@@ -2931,7 +2953,7 @@
         <v>50</v>
       </c>
       <c r="K53" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>409.1</v>
@@ -2982,7 +3004,7 @@
         <v>52</v>
       </c>
       <c r="K54" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>409.1</v>
@@ -3033,7 +3055,7 @@
         <v>53</v>
       </c>
       <c r="K55" t="n">
-        <v>26.31578947368421</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L55" t="n">
         <v>409.2</v>
@@ -3084,7 +3106,7 @@
         <v>53</v>
       </c>
       <c r="K56" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>409.3</v>
@@ -3135,7 +3157,7 @@
         <v>54</v>
       </c>
       <c r="K57" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="L57" t="n">
         <v>409.2</v>
@@ -3186,7 +3208,7 @@
         <v>56</v>
       </c>
       <c r="K58" t="n">
-        <v>23.80952380952381</v>
+        <v>25</v>
       </c>
       <c r="L58" t="n">
         <v>409.2</v>
@@ -3237,7 +3259,7 @@
         <v>57</v>
       </c>
       <c r="K59" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L59" t="n">
         <v>409.3</v>
@@ -3288,7 +3310,7 @@
         <v>57</v>
       </c>
       <c r="K60" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L60" t="n">
         <v>409.2</v>
@@ -3339,7 +3361,7 @@
         <v>57</v>
       </c>
       <c r="K61" t="n">
-        <v>20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L61" t="n">
         <v>409.1</v>
@@ -3390,7 +3412,7 @@
         <v>58</v>
       </c>
       <c r="K62" t="n">
-        <v>36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>409.1</v>
@@ -3441,7 +3463,7 @@
         <v>59</v>
       </c>
       <c r="K63" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L63" t="n">
         <v>409</v>
@@ -3492,7 +3514,7 @@
         <v>59</v>
       </c>
       <c r="K64" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>409.1</v>
@@ -3543,7 +3565,7 @@
         <v>59</v>
       </c>
       <c r="K65" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>409.1</v>
@@ -3594,7 +3616,7 @@
         <v>59</v>
       </c>
       <c r="K66" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L66" t="n">
         <v>409.1</v>
@@ -3645,7 +3667,7 @@
         <v>59</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>409.2</v>
@@ -3696,7 +3718,7 @@
         <v>59</v>
       </c>
       <c r="K68" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>409.1</v>
@@ -3747,7 +3769,7 @@
         <v>60</v>
       </c>
       <c r="K69" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>409.2</v>
@@ -3798,7 +3820,7 @@
         <v>61</v>
       </c>
       <c r="K70" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>409.2</v>
@@ -3849,7 +3871,7 @@
         <v>63</v>
       </c>
       <c r="K71" t="n">
-        <v>-23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L71" t="n">
         <v>409</v>
@@ -3900,7 +3922,7 @@
         <v>64</v>
       </c>
       <c r="K72" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L72" t="n">
         <v>408.8</v>
@@ -3951,7 +3973,7 @@
         <v>65</v>
       </c>
       <c r="K73" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>408.6</v>
@@ -4002,7 +4024,7 @@
         <v>65</v>
       </c>
       <c r="K74" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>408.4</v>
@@ -4053,7 +4075,7 @@
         <v>66</v>
       </c>
       <c r="K75" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L75" t="n">
         <v>408.3</v>
@@ -4104,7 +4126,7 @@
         <v>66</v>
       </c>
       <c r="K76" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L76" t="n">
         <v>408.2</v>
@@ -4155,7 +4177,7 @@
         <v>66</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L77" t="n">
         <v>408.1</v>
@@ -4257,7 +4279,7 @@
         <v>68</v>
       </c>
       <c r="K79" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L79" t="n">
         <v>408.2</v>
@@ -4308,7 +4330,7 @@
         <v>69</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>408.2</v>
@@ -4359,7 +4381,7 @@
         <v>70</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>408.3</v>
@@ -4410,7 +4432,7 @@
         <v>70</v>
       </c>
       <c r="K82" t="n">
-        <v>-16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L82" t="n">
         <v>408.3</v>
@@ -4461,7 +4483,7 @@
         <v>70</v>
       </c>
       <c r="K83" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L83" t="n">
         <v>408.4</v>
@@ -4512,7 +4534,7 @@
         <v>70</v>
       </c>
       <c r="K84" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>408.5</v>
@@ -4563,7 +4585,7 @@
         <v>71</v>
       </c>
       <c r="K85" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L85" t="n">
         <v>408.4</v>
@@ -4614,7 +4636,7 @@
         <v>73</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L86" t="n">
         <v>408.5</v>
@@ -4665,7 +4687,7 @@
         <v>74</v>
       </c>
       <c r="K87" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>408.5</v>
@@ -4716,7 +4738,7 @@
         <v>74</v>
       </c>
       <c r="K88" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>408.3</v>
@@ -4767,7 +4789,7 @@
         <v>74</v>
       </c>
       <c r="K89" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L89" t="n">
         <v>408.1</v>
@@ -4818,7 +4840,7 @@
         <v>74</v>
       </c>
       <c r="K90" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>408</v>
@@ -4869,7 +4891,7 @@
         <v>75</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L91" t="n">
         <v>407.9</v>
@@ -4920,7 +4942,7 @@
         <v>75</v>
       </c>
       <c r="K92" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L92" t="n">
         <v>407.8</v>
@@ -4971,7 +4993,7 @@
         <v>75</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L93" t="n">
         <v>407.7</v>
@@ -5073,7 +5095,7 @@
         <v>75</v>
       </c>
       <c r="K95" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L95" t="n">
         <v>407.6</v>
@@ -5226,7 +5248,7 @@
         <v>76</v>
       </c>
       <c r="K98" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>407.5</v>
@@ -5328,7 +5350,7 @@
         <v>79</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L100" t="n">
         <v>407.5</v>
@@ -5379,7 +5401,7 @@
         <v>79</v>
       </c>
       <c r="K101" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L101" t="n">
         <v>407.7</v>
@@ -5430,7 +5452,7 @@
         <v>80</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L102" t="n">
         <v>407.8</v>
@@ -5481,7 +5503,7 @@
         <v>80</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L103" t="n">
         <v>407.9</v>
@@ -5532,7 +5554,7 @@
         <v>80</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L104" t="n">
         <v>408</v>
@@ -5583,7 +5605,7 @@
         <v>80</v>
       </c>
       <c r="K105" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>408.1</v>
@@ -5634,7 +5656,7 @@
         <v>80</v>
       </c>
       <c r="K106" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>408.1</v>
@@ -5685,7 +5707,7 @@
         <v>81</v>
       </c>
       <c r="K107" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L107" t="n">
         <v>408.2</v>
@@ -5736,7 +5758,7 @@
         <v>81</v>
       </c>
       <c r="K108" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L108" t="n">
         <v>408.3</v>
@@ -5787,7 +5809,7 @@
         <v>83</v>
       </c>
       <c r="K109" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L109" t="n">
         <v>408.3</v>
@@ -5838,7 +5860,7 @@
         <v>84</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L110" t="n">
         <v>408.2</v>
@@ -5889,7 +5911,7 @@
         <v>84</v>
       </c>
       <c r="K111" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>408.1</v>
@@ -5940,7 +5962,7 @@
         <v>84</v>
       </c>
       <c r="K112" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>408.1</v>
@@ -6042,7 +6064,7 @@
         <v>86</v>
       </c>
       <c r="K114" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>408.2</v>
@@ -6093,7 +6115,7 @@
         <v>87</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L115" t="n">
         <v>408.1</v>
@@ -6144,7 +6166,7 @@
         <v>88</v>
       </c>
       <c r="K116" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L116" t="n">
         <v>407.9</v>
@@ -6195,7 +6217,7 @@
         <v>89</v>
       </c>
       <c r="K117" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L117" t="n">
         <v>407.7</v>
@@ -6246,7 +6268,7 @@
         <v>89</v>
       </c>
       <c r="K118" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>407.5</v>
@@ -6297,7 +6319,7 @@
         <v>90</v>
       </c>
       <c r="K119" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>407.4</v>
@@ -6348,7 +6370,7 @@
         <v>90</v>
       </c>
       <c r="K120" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>407.2</v>
@@ -6399,7 +6421,7 @@
         <v>90</v>
       </c>
       <c r="K121" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>407</v>
@@ -6450,7 +6472,7 @@
         <v>91</v>
       </c>
       <c r="K122" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>406.9</v>
@@ -6501,7 +6523,7 @@
         <v>91</v>
       </c>
       <c r="K123" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L123" t="n">
         <v>406.7</v>
@@ -6552,7 +6574,7 @@
         <v>93</v>
       </c>
       <c r="K124" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>406.4</v>
@@ -6603,7 +6625,7 @@
         <v>93</v>
       </c>
       <c r="K125" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L125" t="n">
         <v>406.2</v>
@@ -6654,7 +6676,7 @@
         <v>94</v>
       </c>
       <c r="K126" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L126" t="n">
         <v>406.2</v>
@@ -6705,7 +6727,7 @@
         <v>95</v>
       </c>
       <c r="K127" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>406</v>
@@ -6858,7 +6880,7 @@
         <v>98</v>
       </c>
       <c r="K130" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>405.6</v>
@@ -7011,7 +7033,7 @@
         <v>98</v>
       </c>
       <c r="K133" t="n">
-        <v>-23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L133" t="n">
         <v>405.4</v>
@@ -7062,7 +7084,7 @@
         <v>98</v>
       </c>
       <c r="K134" t="n">
-        <v>-16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L134" t="n">
         <v>405.5</v>
@@ -7113,7 +7135,7 @@
         <v>99</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L135" t="n">
         <v>405.7</v>
@@ -7164,7 +7186,7 @@
         <v>101</v>
       </c>
       <c r="K136" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>405.6</v>
@@ -7215,7 +7237,7 @@
         <v>103</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L137" t="n">
         <v>405.8</v>
@@ -7266,7 +7288,7 @@
         <v>103</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>406.1</v>
@@ -7317,7 +7339,7 @@
         <v>104</v>
       </c>
       <c r="K139" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L139" t="n">
         <v>406.4</v>
@@ -7368,7 +7390,7 @@
         <v>105</v>
       </c>
       <c r="K140" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L140" t="n">
         <v>406.5</v>
@@ -7419,7 +7441,7 @@
         <v>105</v>
       </c>
       <c r="K141" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L141" t="n">
         <v>406.6</v>
@@ -7470,7 +7492,7 @@
         <v>105</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L142" t="n">
         <v>406.7</v>
@@ -7521,7 +7543,7 @@
         <v>106</v>
       </c>
       <c r="K143" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L143" t="n">
         <v>406.9</v>
@@ -7572,7 +7594,7 @@
         <v>106</v>
       </c>
       <c r="K144" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L144" t="n">
         <v>407.1</v>
@@ -7623,7 +7645,7 @@
         <v>106</v>
       </c>
       <c r="K145" t="n">
-        <v>23.07692307692308</v>
+        <v>60</v>
       </c>
       <c r="L145" t="n">
         <v>407.2</v>
@@ -7674,7 +7696,7 @@
         <v>106</v>
       </c>
       <c r="K146" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>407.5</v>
@@ -7725,7 +7747,7 @@
         <v>107</v>
       </c>
       <c r="K147" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L147" t="n">
         <v>407.7</v>
@@ -7776,7 +7798,7 @@
         <v>107</v>
       </c>
       <c r="K148" t="n">
-        <v>45.45454545454545</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>407.9</v>
@@ -7827,7 +7849,7 @@
         <v>107</v>
       </c>
       <c r="K149" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L149" t="n">
         <v>408</v>
@@ -7878,7 +7900,7 @@
         <v>107</v>
       </c>
       <c r="K150" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L150" t="n">
         <v>408.2</v>
@@ -7929,7 +7951,7 @@
         <v>107</v>
       </c>
       <c r="K151" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L151" t="n">
         <v>408.4</v>
@@ -7980,7 +8002,7 @@
         <v>107</v>
       </c>
       <c r="K152" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L152" t="n">
         <v>408.6</v>
@@ -8031,7 +8053,7 @@
         <v>107</v>
       </c>
       <c r="K153" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L153" t="n">
         <v>408.7</v>
@@ -8082,7 +8104,7 @@
         <v>107</v>
       </c>
       <c r="K154" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L154" t="n">
         <v>408.8</v>
@@ -8133,7 +8155,7 @@
         <v>108</v>
       </c>
       <c r="K155" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L155" t="n">
         <v>409</v>
@@ -8184,7 +8206,7 @@
         <v>109</v>
       </c>
       <c r="K156" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>409.1</v>
@@ -8235,7 +8257,7 @@
         <v>109</v>
       </c>
       <c r="K157" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>409.1</v>
@@ -8286,7 +8308,7 @@
         <v>110</v>
       </c>
       <c r="K158" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>409.2</v>
@@ -8388,7 +8410,7 @@
         <v>110</v>
       </c>
       <c r="K160" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>409.4</v>
@@ -8439,7 +8461,7 @@
         <v>110</v>
       </c>
       <c r="K161" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>409.5</v>
@@ -8490,7 +8512,7 @@
         <v>112</v>
       </c>
       <c r="K162" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L162" t="n">
         <v>409.4</v>
@@ -8541,7 +8563,7 @@
         <v>113</v>
       </c>
       <c r="K163" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>409.4</v>
@@ -8592,7 +8614,7 @@
         <v>114</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L164" t="n">
         <v>409.3</v>
@@ -8643,7 +8665,7 @@
         <v>115</v>
       </c>
       <c r="K165" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L165" t="n">
         <v>409</v>
@@ -8694,7 +8716,7 @@
         <v>116</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L166" t="n">
         <v>408.9</v>
@@ -8745,7 +8767,7 @@
         <v>117</v>
       </c>
       <c r="K167" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L167" t="n">
         <v>408.7</v>
@@ -8796,7 +8818,7 @@
         <v>117</v>
       </c>
       <c r="K168" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L168" t="n">
         <v>408.4</v>
@@ -8847,7 +8869,7 @@
         <v>118</v>
       </c>
       <c r="K169" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L169" t="n">
         <v>408.2</v>
@@ -8898,7 +8920,7 @@
         <v>118</v>
       </c>
       <c r="K170" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L170" t="n">
         <v>408</v>
@@ -8949,7 +8971,7 @@
         <v>119</v>
       </c>
       <c r="K171" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L171" t="n">
         <v>407.7</v>
@@ -9000,7 +9022,7 @@
         <v>120</v>
       </c>
       <c r="K172" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L172" t="n">
         <v>407.7</v>
@@ -9102,7 +9124,7 @@
         <v>122</v>
       </c>
       <c r="K174" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L174" t="n">
         <v>407.5</v>
@@ -9153,7 +9175,7 @@
         <v>122</v>
       </c>
       <c r="K175" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>407.6</v>
@@ -9204,7 +9226,7 @@
         <v>122</v>
       </c>
       <c r="K176" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L176" t="n">
         <v>407.6</v>
@@ -9255,7 +9277,7 @@
         <v>122</v>
       </c>
       <c r="K177" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L177" t="n">
         <v>407.7</v>
@@ -9306,7 +9328,7 @@
         <v>124</v>
       </c>
       <c r="K178" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L178" t="n">
         <v>407.6</v>
@@ -9357,7 +9379,7 @@
         <v>127</v>
       </c>
       <c r="K179" t="n">
-        <v>-5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L179" t="n">
         <v>407.7</v>
@@ -9408,7 +9430,7 @@
         <v>128</v>
       </c>
       <c r="K180" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>407.9</v>
@@ -9459,7 +9481,7 @@
         <v>130</v>
       </c>
       <c r="K181" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>408</v>
@@ -9510,7 +9532,7 @@
         <v>131</v>
       </c>
       <c r="K182" t="n">
-        <v>5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L182" t="n">
         <v>408.1</v>
@@ -9561,7 +9583,7 @@
         <v>132</v>
       </c>
       <c r="K183" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>408.2</v>
@@ -9663,7 +9685,7 @@
         <v>133</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L185" t="n">
         <v>408.1</v>
@@ -9714,7 +9736,7 @@
         <v>133</v>
       </c>
       <c r="K186" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L186" t="n">
         <v>408</v>
@@ -9765,7 +9787,7 @@
         <v>134</v>
       </c>
       <c r="K187" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>407.8</v>
@@ -9816,7 +9838,7 @@
         <v>134</v>
       </c>
       <c r="K188" t="n">
-        <v>-5.88235294117647</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L188" t="n">
         <v>407.8</v>
@@ -9867,7 +9889,7 @@
         <v>134</v>
       </c>
       <c r="K189" t="n">
-        <v>-12.5</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L189" t="n">
         <v>407.5</v>
@@ -9918,7 +9940,7 @@
         <v>135</v>
       </c>
       <c r="K190" t="n">
-        <v>-17.64705882352941</v>
+        <v>-60</v>
       </c>
       <c r="L190" t="n">
         <v>407</v>
@@ -9969,7 +9991,7 @@
         <v>136</v>
       </c>
       <c r="K191" t="n">
-        <v>-5.88235294117647</v>
+        <v>-60</v>
       </c>
       <c r="L191" t="n">
         <v>406.8</v>
@@ -10020,7 +10042,7 @@
         <v>138</v>
       </c>
       <c r="K192" t="n">
-        <v>-22.22222222222222</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L192" t="n">
         <v>406.3</v>
@@ -10071,7 +10093,7 @@
         <v>138</v>
       </c>
       <c r="K193" t="n">
-        <v>-17.64705882352941</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L193" t="n">
         <v>405.9</v>
@@ -10122,7 +10144,7 @@
         <v>139</v>
       </c>
       <c r="K194" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L194" t="n">
         <v>405.6</v>
@@ -10173,7 +10195,7 @@
         <v>140</v>
       </c>
       <c r="K195" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L195" t="n">
         <v>405.5</v>
@@ -10224,7 +10246,7 @@
         <v>140</v>
       </c>
       <c r="K196" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>405.4</v>
@@ -10275,7 +10297,7 @@
         <v>141</v>
       </c>
       <c r="K197" t="n">
-        <v>-15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L197" t="n">
         <v>405.3</v>
@@ -10326,7 +10348,7 @@
         <v>141</v>
       </c>
       <c r="K198" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L198" t="n">
         <v>405.2</v>
@@ -10377,7 +10399,7 @@
         <v>141</v>
       </c>
       <c r="K199" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>405.1</v>
@@ -10428,7 +10450,7 @@
         <v>142</v>
       </c>
       <c r="K200" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>405.2</v>
@@ -10479,7 +10501,7 @@
         <v>142</v>
       </c>
       <c r="K201" t="n">
-        <v>-16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L201" t="n">
         <v>405.2</v>
@@ -10530,7 +10552,7 @@
         <v>144</v>
       </c>
       <c r="K202" t="n">
-        <v>-38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>405.2</v>
@@ -10581,7 +10603,7 @@
         <v>145</v>
       </c>
       <c r="K203" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>405.3</v>
@@ -10632,7 +10654,7 @@
         <v>145</v>
       </c>
       <c r="K204" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L204" t="n">
         <v>405.3</v>
@@ -10683,7 +10705,7 @@
         <v>146</v>
       </c>
       <c r="K205" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
         <v>405.3</v>
@@ -10734,7 +10756,7 @@
         <v>147</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L206" t="n">
         <v>405.4</v>
@@ -10785,7 +10807,7 @@
         <v>147</v>
       </c>
       <c r="K207" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>405.6</v>
@@ -10836,7 +10858,7 @@
         <v>148</v>
       </c>
       <c r="K208" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L208" t="n">
         <v>405.9</v>
@@ -10887,7 +10909,7 @@
         <v>149</v>
       </c>
       <c r="K209" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L209" t="n">
         <v>406.1</v>
@@ -10989,7 +11011,7 @@
         <v>152</v>
       </c>
       <c r="K211" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>406</v>
@@ -11040,7 +11062,7 @@
         <v>152</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L212" t="n">
         <v>406</v>
@@ -11091,7 +11113,7 @@
         <v>153</v>
       </c>
       <c r="K213" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L213" t="n">
         <v>405.8</v>
@@ -11142,7 +11164,7 @@
         <v>154</v>
       </c>
       <c r="K214" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L214" t="n">
         <v>405.7</v>
@@ -11193,7 +11215,7 @@
         <v>154</v>
       </c>
       <c r="K215" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L215" t="n">
         <v>405.5</v>
@@ -11244,7 +11266,7 @@
         <v>154</v>
       </c>
       <c r="K216" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L216" t="n">
         <v>405.2</v>
@@ -11295,7 +11317,7 @@
         <v>155</v>
       </c>
       <c r="K217" t="n">
-        <v>-14.28571428571428</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L217" t="n">
         <v>404.8</v>
@@ -11346,7 +11368,7 @@
         <v>157</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L218" t="n">
         <v>404.5</v>
@@ -11397,7 +11419,7 @@
         <v>157</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L219" t="n">
         <v>404.3</v>
@@ -11448,7 +11470,7 @@
         <v>160</v>
       </c>
       <c r="K220" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L220" t="n">
         <v>403.8</v>
@@ -11499,7 +11521,7 @@
         <v>161</v>
       </c>
       <c r="K221" t="n">
-        <v>-15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L221" t="n">
         <v>403.7</v>
@@ -11601,7 +11623,7 @@
         <v>163</v>
       </c>
       <c r="K223" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L223" t="n">
         <v>403.3</v>
@@ -11652,7 +11674,7 @@
         <v>163</v>
       </c>
       <c r="K224" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L224" t="n">
         <v>403</v>
@@ -11703,7 +11725,7 @@
         <v>165</v>
       </c>
       <c r="K225" t="n">
-        <v>-15.78947368421053</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L225" t="n">
         <v>402.9</v>
@@ -11754,7 +11776,7 @@
         <v>165</v>
       </c>
       <c r="K226" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>402.8</v>
@@ -11805,7 +11827,7 @@
         <v>168</v>
       </c>
       <c r="K227" t="n">
-        <v>-33.33333333333333</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L227" t="n">
         <v>402.5</v>
@@ -11856,7 +11878,7 @@
         <v>168</v>
       </c>
       <c r="K228" t="n">
-        <v>-40</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L228" t="n">
         <v>402</v>
@@ -11907,7 +11929,7 @@
         <v>168</v>
       </c>
       <c r="K229" t="n">
-        <v>-36.84210526315789</v>
+        <v>-25</v>
       </c>
       <c r="L229" t="n">
         <v>401.5</v>
@@ -11958,7 +11980,7 @@
         <v>168</v>
       </c>
       <c r="K230" t="n">
-        <v>-36.84210526315789</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L230" t="n">
         <v>401.3</v>
@@ -12009,7 +12031,7 @@
         <v>168</v>
       </c>
       <c r="K231" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L231" t="n">
         <v>401</v>
@@ -12060,7 +12082,7 @@
         <v>168</v>
       </c>
       <c r="K232" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L232" t="n">
         <v>400.8</v>
@@ -12111,7 +12133,7 @@
         <v>169</v>
       </c>
       <c r="K233" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>400.6</v>
@@ -12162,7 +12184,7 @@
         <v>169</v>
       </c>
       <c r="K234" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L234" t="n">
         <v>400.4</v>
@@ -12213,7 +12235,7 @@
         <v>169</v>
       </c>
       <c r="K235" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L235" t="n">
         <v>400</v>
@@ -12264,7 +12286,7 @@
         <v>169</v>
       </c>
       <c r="K236" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L236" t="n">
         <v>399.6</v>
@@ -12315,7 +12337,7 @@
         <v>169</v>
       </c>
       <c r="K237" t="n">
-        <v>-28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L237" t="n">
         <v>399.5</v>
@@ -12366,7 +12388,7 @@
         <v>170</v>
       </c>
       <c r="K238" t="n">
-        <v>-38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>399.5</v>
@@ -12417,7 +12439,7 @@
         <v>170</v>
       </c>
       <c r="K239" t="n">
-        <v>-38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>399.5</v>
@@ -12468,7 +12490,7 @@
         <v>173</v>
       </c>
       <c r="K240" t="n">
-        <v>-38.46153846153847</v>
+        <v>-60</v>
       </c>
       <c r="L240" t="n">
         <v>399.2</v>
@@ -12519,7 +12541,7 @@
         <v>176</v>
       </c>
       <c r="K241" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>399.2</v>
@@ -12570,7 +12592,7 @@
         <v>176</v>
       </c>
       <c r="K242" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L242" t="n">
         <v>399.2</v>
@@ -12621,7 +12643,7 @@
         <v>176</v>
       </c>
       <c r="K243" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L243" t="n">
         <v>399.3</v>
@@ -12672,7 +12694,7 @@
         <v>176</v>
       </c>
       <c r="K244" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L244" t="n">
         <v>399.4</v>
@@ -12723,7 +12745,7 @@
         <v>176</v>
       </c>
       <c r="K245" t="n">
-        <v>-27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L245" t="n">
         <v>399.5</v>
@@ -12774,7 +12796,7 @@
         <v>176</v>
       </c>
       <c r="K246" t="n">
-        <v>-27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L246" t="n">
         <v>399.6</v>
@@ -12825,7 +12847,7 @@
         <v>177</v>
       </c>
       <c r="K247" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L247" t="n">
         <v>399.6</v>
@@ -12927,7 +12949,7 @@
         <v>178</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L249" t="n">
         <v>399.6</v>
@@ -13131,7 +13153,7 @@
         <v>179</v>
       </c>
       <c r="K253" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L253" t="n">
         <v>400</v>
@@ -13182,7 +13204,7 @@
         <v>181</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L254" t="n">
         <v>399.9</v>
@@ -13233,7 +13255,7 @@
         <v>181</v>
       </c>
       <c r="K255" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L255" t="n">
         <v>399.8</v>
@@ -13335,7 +13357,7 @@
         <v>183</v>
       </c>
       <c r="K257" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L257" t="n">
         <v>399.9</v>
@@ -13386,7 +13408,7 @@
         <v>183</v>
       </c>
       <c r="K258" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L258" t="n">
         <v>400</v>
@@ -13488,7 +13510,7 @@
         <v>186</v>
       </c>
       <c r="K260" t="n">
-        <v>38.46153846153847</v>
+        <v>25</v>
       </c>
       <c r="L260" t="n">
         <v>400.2</v>
@@ -13539,7 +13561,7 @@
         <v>189</v>
       </c>
       <c r="K261" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L261" t="n">
         <v>400.1</v>
@@ -13590,7 +13612,7 @@
         <v>190</v>
       </c>
       <c r="K262" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L262" t="n">
         <v>400.1</v>
@@ -13641,7 +13663,7 @@
         <v>190</v>
       </c>
       <c r="K263" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L263" t="n">
         <v>400</v>
@@ -13692,7 +13714,7 @@
         <v>192</v>
       </c>
       <c r="K264" t="n">
-        <v>12.5</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L264" t="n">
         <v>400.3</v>
@@ -13743,7 +13765,7 @@
         <v>193</v>
       </c>
       <c r="K265" t="n">
-        <v>5.88235294117647</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L265" t="n">
         <v>400.5</v>
@@ -13794,7 +13816,7 @@
         <v>194</v>
       </c>
       <c r="K266" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L266" t="n">
         <v>400.8</v>
@@ -13845,7 +13867,7 @@
         <v>195</v>
       </c>
       <c r="K267" t="n">
-        <v>22.22222222222222</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L267" t="n">
         <v>401</v>
@@ -13896,7 +13918,7 @@
         <v>196</v>
       </c>
       <c r="K268" t="n">
-        <v>11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L268" t="n">
         <v>401.1</v>
@@ -13947,7 +13969,7 @@
         <v>198</v>
       </c>
       <c r="K269" t="n">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L269" t="n">
         <v>401.5</v>
@@ -13998,7 +14020,7 @@
         <v>198</v>
       </c>
       <c r="K270" t="n">
-        <v>20</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L270" t="n">
         <v>401.7</v>
@@ -14049,7 +14071,7 @@
         <v>199</v>
       </c>
       <c r="K271" t="n">
-        <v>23.80952380952381</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L271" t="n">
         <v>402.3</v>
@@ -14100,7 +14122,7 @@
         <v>199</v>
       </c>
       <c r="K272" t="n">
-        <v>23.80952380952381</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L272" t="n">
         <v>402.8</v>
@@ -14151,7 +14173,7 @@
         <v>199</v>
       </c>
       <c r="K273" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L273" t="n">
         <v>403.3</v>
@@ -14202,7 +14224,7 @@
         <v>201</v>
       </c>
       <c r="K274" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L274" t="n">
         <v>403.4</v>
@@ -14253,7 +14275,7 @@
         <v>203</v>
       </c>
       <c r="K275" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L275" t="n">
         <v>403.8</v>
@@ -14304,7 +14326,7 @@
         <v>205</v>
       </c>
       <c r="K276" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>403.9</v>
@@ -14355,7 +14377,7 @@
         <v>205</v>
       </c>
       <c r="K277" t="n">
-        <v>9.090909090909092</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L277" t="n">
         <v>403.9</v>
@@ -14406,7 +14428,7 @@
         <v>206</v>
       </c>
       <c r="K278" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>404.1</v>
@@ -14457,7 +14479,7 @@
         <v>206</v>
       </c>
       <c r="K279" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>404.1</v>
@@ -14508,7 +14530,7 @@
         <v>206</v>
       </c>
       <c r="K280" t="n">
-        <v>10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L280" t="n">
         <v>404.1</v>
@@ -14559,7 +14581,7 @@
         <v>206</v>
       </c>
       <c r="K281" t="n">
-        <v>29.41176470588236</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L281" t="n">
         <v>404</v>
@@ -14610,7 +14632,7 @@
         <v>208</v>
       </c>
       <c r="K282" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L282" t="n">
         <v>403.7</v>
@@ -14661,7 +14683,7 @@
         <v>208</v>
       </c>
       <c r="K283" t="n">
-        <v>11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L283" t="n">
         <v>403.4</v>
@@ -14712,7 +14734,7 @@
         <v>211</v>
       </c>
       <c r="K284" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>403.6</v>
@@ -14763,7 +14785,7 @@
         <v>211</v>
       </c>
       <c r="K285" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L285" t="n">
         <v>403.6</v>
@@ -14814,7 +14836,7 @@
         <v>212</v>
       </c>
       <c r="K286" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L286" t="n">
         <v>403.7</v>
@@ -14865,7 +14887,7 @@
         <v>212</v>
       </c>
       <c r="K287" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L287" t="n">
         <v>403.8</v>
@@ -14916,7 +14938,7 @@
         <v>213</v>
       </c>
       <c r="K288" t="n">
-        <v>17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L288" t="n">
         <v>403.9</v>
@@ -14967,7 +14989,7 @@
         <v>213</v>
       </c>
       <c r="K289" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L289" t="n">
         <v>404</v>
@@ -15018,7 +15040,7 @@
         <v>216</v>
       </c>
       <c r="K290" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L290" t="n">
         <v>403.8</v>
@@ -15069,7 +15091,7 @@
         <v>219</v>
       </c>
       <c r="K291" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L291" t="n">
         <v>403.9</v>
@@ -15120,7 +15142,7 @@
         <v>220</v>
       </c>
       <c r="K292" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L292" t="n">
         <v>404.3</v>
@@ -15171,7 +15193,7 @@
         <v>220</v>
       </c>
       <c r="K293" t="n">
-        <v>4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L293" t="n">
         <v>404.7</v>
@@ -15222,7 +15244,7 @@
         <v>222</v>
       </c>
       <c r="K294" t="n">
-        <v>23.80952380952381</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L294" t="n">
         <v>405</v>
@@ -15273,7 +15295,7 @@
         <v>223</v>
       </c>
       <c r="K295" t="n">
-        <v>10</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L295" t="n">
         <v>405.2</v>
@@ -15324,7 +15346,7 @@
         <v>223</v>
       </c>
       <c r="K296" t="n">
-        <v>22.22222222222222</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L296" t="n">
         <v>405.5</v>
@@ -15375,7 +15397,7 @@
         <v>223</v>
       </c>
       <c r="K297" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L297" t="n">
         <v>405.8</v>
@@ -15426,7 +15448,7 @@
         <v>223</v>
       </c>
       <c r="K298" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L298" t="n">
         <v>406</v>
@@ -15477,7 +15499,7 @@
         <v>223</v>
       </c>
       <c r="K299" t="n">
-        <v>17.64705882352941</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L299" t="n">
         <v>406.2</v>
@@ -15528,7 +15550,7 @@
         <v>223</v>
       </c>
       <c r="K300" t="n">
-        <v>17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L300" t="n">
         <v>406.7</v>
@@ -15579,7 +15601,7 @@
         <v>224</v>
       </c>
       <c r="K301" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>406.8</v>
@@ -15630,7 +15652,7 @@
         <v>225</v>
       </c>
       <c r="K302" t="n">
-        <v>29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L302" t="n">
         <v>406.9</v>
@@ -15681,7 +15703,7 @@
         <v>226</v>
       </c>
       <c r="K303" t="n">
-        <v>22.22222222222222</v>
+        <v>-50</v>
       </c>
       <c r="L303" t="n">
         <v>406.9</v>
@@ -15732,7 +15754,7 @@
         <v>227</v>
       </c>
       <c r="K304" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>406.8</v>
@@ -15783,7 +15805,7 @@
         <v>228</v>
       </c>
       <c r="K305" t="n">
-        <v>5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L305" t="n">
         <v>406.7</v>
@@ -15834,7 +15856,7 @@
         <v>229</v>
       </c>
       <c r="K306" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>406.7</v>
@@ -15885,7 +15907,7 @@
         <v>230</v>
       </c>
       <c r="K307" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L307" t="n">
         <v>406.8</v>
@@ -15936,7 +15958,7 @@
         <v>231</v>
       </c>
       <c r="K308" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>406.8</v>
@@ -15987,7 +16009,7 @@
         <v>231</v>
       </c>
       <c r="K309" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>406.8</v>
@@ -16038,7 +16060,7 @@
         <v>232</v>
       </c>
       <c r="K310" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="L310" t="n">
         <v>406.9</v>
@@ -16089,7 +16111,7 @@
         <v>233</v>
       </c>
       <c r="K311" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>407</v>
@@ -16140,7 +16162,7 @@
         <v>234</v>
       </c>
       <c r="K312" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L312" t="n">
         <v>407.1</v>
@@ -16242,7 +16264,7 @@
         <v>234</v>
       </c>
       <c r="K314" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L314" t="n">
         <v>407.4</v>
@@ -16293,7 +16315,7 @@
         <v>234</v>
       </c>
       <c r="K315" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L315" t="n">
         <v>407.6</v>
@@ -16344,7 +16366,7 @@
         <v>234</v>
       </c>
       <c r="K316" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>407.7</v>
@@ -16497,7 +16519,7 @@
         <v>236</v>
       </c>
       <c r="K319" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>407.7</v>
@@ -16548,7 +16570,7 @@
         <v>236</v>
       </c>
       <c r="K320" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L320" t="n">
         <v>407.7</v>
@@ -16599,7 +16621,7 @@
         <v>236</v>
       </c>
       <c r="K321" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>407.8</v>
@@ -16650,7 +16672,7 @@
         <v>236</v>
       </c>
       <c r="K322" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>407.8</v>
@@ -16701,7 +16723,7 @@
         <v>238</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L323" t="n">
         <v>407.6</v>
@@ -16752,7 +16774,7 @@
         <v>239</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L324" t="n">
         <v>407.5</v>
@@ -16803,7 +16825,7 @@
         <v>240</v>
       </c>
       <c r="K325" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>407.5</v>
@@ -16854,7 +16876,7 @@
         <v>241</v>
       </c>
       <c r="K326" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L326" t="n">
         <v>407.6</v>
@@ -16905,7 +16927,7 @@
         <v>242</v>
       </c>
       <c r="K327" t="n">
-        <v>16.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L327" t="n">
         <v>407.9</v>
@@ -16956,7 +16978,7 @@
         <v>242</v>
       </c>
       <c r="K328" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L328" t="n">
         <v>408.2</v>
@@ -17007,7 +17029,7 @@
         <v>243</v>
       </c>
       <c r="K329" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L329" t="n">
         <v>408.5</v>
@@ -17058,7 +17080,7 @@
         <v>245</v>
       </c>
       <c r="K330" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L330" t="n">
         <v>408.6</v>
@@ -17109,7 +17131,7 @@
         <v>246</v>
       </c>
       <c r="K331" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>408.6</v>
@@ -17160,7 +17182,7 @@
         <v>247</v>
       </c>
       <c r="K332" t="n">
-        <v>-7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L332" t="n">
         <v>408.5</v>
@@ -17211,7 +17233,7 @@
         <v>247</v>
       </c>
       <c r="K333" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L333" t="n">
         <v>408.6</v>
@@ -17262,7 +17284,7 @@
         <v>249</v>
       </c>
       <c r="K334" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L334" t="n">
         <v>408.4</v>
@@ -17313,7 +17335,7 @@
         <v>249</v>
       </c>
       <c r="K335" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L335" t="n">
         <v>408.1</v>
@@ -17364,7 +17386,7 @@
         <v>250</v>
       </c>
       <c r="K336" t="n">
-        <v>-12.5</v>
+        <v>-50</v>
       </c>
       <c r="L336" t="n">
         <v>407.8</v>
@@ -17415,7 +17437,7 @@
         <v>251</v>
       </c>
       <c r="K337" t="n">
-        <v>-12.5</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L337" t="n">
         <v>407.3</v>
@@ -17466,7 +17488,7 @@
         <v>251</v>
       </c>
       <c r="K338" t="n">
-        <v>-12.5</v>
+        <v>-75</v>
       </c>
       <c r="L338" t="n">
         <v>406.8</v>
@@ -17517,7 +17539,7 @@
         <v>251</v>
       </c>
       <c r="K339" t="n">
-        <v>-20</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L339" t="n">
         <v>406.2</v>
@@ -17568,7 +17590,7 @@
         <v>251</v>
       </c>
       <c r="K340" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L340" t="n">
         <v>405.8</v>
@@ -17619,7 +17641,7 @@
         <v>252</v>
       </c>
       <c r="K341" t="n">
-        <v>-25</v>
+        <v>-60</v>
       </c>
       <c r="L341" t="n">
         <v>405.4</v>
@@ -17670,7 +17692,7 @@
         <v>253</v>
       </c>
       <c r="K342" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L342" t="n">
         <v>405.2</v>
@@ -17721,7 +17743,7 @@
         <v>253</v>
       </c>
       <c r="K343" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>405</v>
@@ -17772,7 +17794,7 @@
         <v>253</v>
       </c>
       <c r="K344" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L344" t="n">
         <v>405</v>
@@ -17823,7 +17845,7 @@
         <v>253</v>
       </c>
       <c r="K345" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L345" t="n">
         <v>405</v>
@@ -17874,7 +17896,7 @@
         <v>255</v>
       </c>
       <c r="K346" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L346" t="n">
         <v>404.7</v>
@@ -17925,7 +17947,7 @@
         <v>257</v>
       </c>
       <c r="K347" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>404.7</v>
@@ -17976,7 +17998,7 @@
         <v>258</v>
       </c>
       <c r="K348" t="n">
-        <v>-25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L348" t="n">
         <v>404.8</v>
@@ -18027,7 +18049,7 @@
         <v>260</v>
       </c>
       <c r="K349" t="n">
-        <v>-41.17647058823529</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L349" t="n">
         <v>404.7</v>
@@ -18078,7 +18100,7 @@
         <v>262</v>
       </c>
       <c r="K350" t="n">
-        <v>-17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L350" t="n">
         <v>404.8</v>
@@ -18129,7 +18151,7 @@
         <v>262</v>
       </c>
       <c r="K351" t="n">
-        <v>-12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L351" t="n">
         <v>405</v>
@@ -18180,7 +18202,7 @@
         <v>262</v>
       </c>
       <c r="K352" t="n">
-        <v>-6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L352" t="n">
         <v>405.1</v>
@@ -18231,7 +18253,7 @@
         <v>263</v>
       </c>
       <c r="K353" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L353" t="n">
         <v>405.1</v>
@@ -18282,7 +18304,7 @@
         <v>264</v>
       </c>
       <c r="K354" t="n">
-        <v>-6.666666666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L354" t="n">
         <v>405</v>
@@ -18333,7 +18355,7 @@
         <v>266</v>
       </c>
       <c r="K355" t="n">
-        <v>5.88235294117647</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L355" t="n">
         <v>405.1</v>
@@ -18384,7 +18406,7 @@
         <v>266</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L356" t="n">
         <v>405.4</v>
@@ -18435,7 +18457,7 @@
         <v>266</v>
       </c>
       <c r="K357" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>405.5</v>
@@ -18486,7 +18508,7 @@
         <v>267</v>
       </c>
       <c r="K358" t="n">
-        <v>12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L358" t="n">
         <v>405.6</v>
@@ -18537,7 +18559,7 @@
         <v>268</v>
       </c>
       <c r="K359" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L359" t="n">
         <v>406</v>
@@ -18588,7 +18610,7 @@
         <v>269</v>
       </c>
       <c r="K360" t="n">
-        <v>22.22222222222222</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L360" t="n">
         <v>406.3</v>
@@ -18639,7 +18661,7 @@
         <v>269</v>
       </c>
       <c r="K361" t="n">
-        <v>29.41176470588236</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L361" t="n">
         <v>406.6</v>
@@ -18690,7 +18712,7 @@
         <v>270</v>
       </c>
       <c r="K362" t="n">
-        <v>17.64705882352941</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L362" t="n">
         <v>406.8</v>
@@ -18741,7 +18763,7 @@
         <v>270</v>
       </c>
       <c r="K363" t="n">
-        <v>17.64705882352941</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L363" t="n">
         <v>407.1</v>
@@ -18792,7 +18814,7 @@
         <v>270</v>
       </c>
       <c r="K364" t="n">
-        <v>17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L364" t="n">
         <v>407.5</v>
@@ -18843,7 +18865,7 @@
         <v>272</v>
       </c>
       <c r="K365" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L365" t="n">
         <v>407.5</v>
@@ -18894,7 +18916,7 @@
         <v>275</v>
       </c>
       <c r="K366" t="n">
-        <v>30</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L366" t="n">
         <v>407.8</v>
@@ -18945,7 +18967,7 @@
         <v>276</v>
       </c>
       <c r="K367" t="n">
-        <v>15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L367" t="n">
         <v>408</v>
@@ -18996,7 +19018,7 @@
         <v>277</v>
       </c>
       <c r="K368" t="n">
-        <v>15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L368" t="n">
         <v>408.2</v>
@@ -19047,7 +19069,7 @@
         <v>277</v>
       </c>
       <c r="K369" t="n">
-        <v>29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L369" t="n">
         <v>408.3</v>
@@ -19098,7 +19120,7 @@
         <v>278</v>
       </c>
       <c r="K370" t="n">
-        <v>12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L370" t="n">
         <v>408.2</v>
@@ -19149,7 +19171,7 @@
         <v>279</v>
       </c>
       <c r="K371" t="n">
-        <v>17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L371" t="n">
         <v>408.2</v>
@@ -19200,7 +19222,7 @@
         <v>280</v>
       </c>
       <c r="K372" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L372" t="n">
         <v>408.4</v>
@@ -19251,7 +19273,7 @@
         <v>281</v>
       </c>
       <c r="K373" t="n">
-        <v>33.33333333333333</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L373" t="n">
         <v>408.7</v>
@@ -19302,7 +19324,7 @@
         <v>282</v>
       </c>
       <c r="K374" t="n">
-        <v>44.44444444444444</v>
+        <v>60</v>
       </c>
       <c r="L374" t="n">
         <v>409.1</v>
@@ -19353,7 +19375,7 @@
         <v>283</v>
       </c>
       <c r="K375" t="n">
-        <v>41.17647058823529</v>
+        <v>50</v>
       </c>
       <c r="L375" t="n">
         <v>409.8</v>
@@ -19404,7 +19426,7 @@
         <v>283</v>
       </c>
       <c r="K376" t="n">
-        <v>41.17647058823529</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L376" t="n">
         <v>410.2</v>
@@ -19455,7 +19477,7 @@
         <v>283</v>
       </c>
       <c r="K377" t="n">
-        <v>41.17647058823529</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L377" t="n">
         <v>410.7</v>
@@ -19506,7 +19528,7 @@
         <v>285</v>
       </c>
       <c r="K378" t="n">
-        <v>22.22222222222222</v>
+        <v>25</v>
       </c>
       <c r="L378" t="n">
         <v>410.9</v>
@@ -19557,7 +19579,7 @@
         <v>285</v>
       </c>
       <c r="K379" t="n">
-        <v>17.64705882352941</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L379" t="n">
         <v>411.1</v>
@@ -19608,7 +19630,7 @@
         <v>287</v>
       </c>
       <c r="K380" t="n">
-        <v>22.22222222222222</v>
+        <v>50</v>
       </c>
       <c r="L380" t="n">
         <v>411.6</v>
@@ -19659,7 +19681,7 @@
         <v>289</v>
       </c>
       <c r="K381" t="n">
-        <v>10</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L381" t="n">
         <v>411.8</v>
@@ -19710,7 +19732,7 @@
         <v>289</v>
       </c>
       <c r="K382" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L382" t="n">
         <v>411.9</v>
@@ -19761,7 +19783,7 @@
         <v>289</v>
       </c>
       <c r="K383" t="n">
-        <v>15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L383" t="n">
         <v>411.9</v>
@@ -19812,7 +19834,7 @@
         <v>291</v>
       </c>
       <c r="K384" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L384" t="n">
         <v>412</v>
@@ -19863,7 +19885,7 @@
         <v>292</v>
       </c>
       <c r="K385" t="n">
-        <v>30</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L385" t="n">
         <v>411.9</v>
@@ -19914,7 +19936,7 @@
         <v>293</v>
       </c>
       <c r="K386" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>411.9</v>
@@ -19965,7 +19987,7 @@
         <v>295</v>
       </c>
       <c r="K387" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>411.7</v>
@@ -20016,7 +20038,7 @@
         <v>296</v>
       </c>
       <c r="K388" t="n">
-        <v>5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L388" t="n">
         <v>411.6</v>
@@ -20067,7 +20089,7 @@
         <v>297</v>
       </c>
       <c r="K389" t="n">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="L389" t="n">
         <v>411.6</v>
@@ -20118,7 +20140,7 @@
         <v>297</v>
       </c>
       <c r="K390" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>411.4</v>
@@ -20169,7 +20191,7 @@
         <v>298</v>
       </c>
       <c r="K391" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L391" t="n">
         <v>411.3</v>
@@ -20220,7 +20242,7 @@
         <v>299</v>
       </c>
       <c r="K392" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>411.3</v>
@@ -20271,7 +20293,7 @@
         <v>299</v>
       </c>
       <c r="K393" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L393" t="n">
         <v>411.3</v>
@@ -20322,7 +20344,7 @@
         <v>301</v>
       </c>
       <c r="K394" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L394" t="n">
         <v>410.9</v>
@@ -20373,7 +20395,7 @@
         <v>303</v>
       </c>
       <c r="K395" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L395" t="n">
         <v>410.8</v>
@@ -20424,7 +20446,7 @@
         <v>303</v>
       </c>
       <c r="K396" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L396" t="n">
         <v>410.6</v>
@@ -20475,7 +20497,7 @@
         <v>303</v>
       </c>
       <c r="K397" t="n">
-        <v>-10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L397" t="n">
         <v>410.6</v>
@@ -20526,7 +20548,7 @@
         <v>304</v>
       </c>
       <c r="K398" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L398" t="n">
         <v>410.8</v>
@@ -20577,7 +20599,7 @@
         <v>306</v>
       </c>
       <c r="K399" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L399" t="n">
         <v>411.1</v>
@@ -20628,7 +20650,7 @@
         <v>307</v>
       </c>
       <c r="K400" t="n">
-        <v>10</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L400" t="n">
         <v>411.5</v>
@@ -20679,7 +20701,7 @@
         <v>308</v>
       </c>
       <c r="K401" t="n">
-        <v>26.31578947368421</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L401" t="n">
         <v>412.1</v>
@@ -20730,7 +20752,7 @@
         <v>308</v>
       </c>
       <c r="K402" t="n">
-        <v>26.31578947368421</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L402" t="n">
         <v>412.6</v>
@@ -20781,7 +20803,7 @@
         <v>309</v>
       </c>
       <c r="K403" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="L403" t="n">
         <v>413</v>
@@ -20832,7 +20854,7 @@
         <v>310</v>
       </c>
       <c r="K404" t="n">
-        <v>5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L404" t="n">
         <v>413.5</v>
@@ -20883,7 +20905,7 @@
         <v>311</v>
       </c>
       <c r="K405" t="n">
-        <v>5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L405" t="n">
         <v>413.7</v>
@@ -20934,7 +20956,7 @@
         <v>313</v>
       </c>
       <c r="K406" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L406" t="n">
         <v>414.1</v>
@@ -20985,7 +21007,7 @@
         <v>315</v>
       </c>
       <c r="K407" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L407" t="n">
         <v>414.3</v>
@@ -21036,7 +21058,7 @@
         <v>315</v>
       </c>
       <c r="K408" t="n">
-        <v>15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L408" t="n">
         <v>414.4</v>
@@ -21087,7 +21109,7 @@
         <v>317</v>
       </c>
       <c r="K409" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>414.5</v>
@@ -21138,7 +21160,7 @@
         <v>319</v>
       </c>
       <c r="K410" t="n">
-        <v>9.090909090909092</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L410" t="n">
         <v>414.3</v>
@@ -21189,7 +21211,7 @@
         <v>320</v>
       </c>
       <c r="K411" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L411" t="n">
         <v>413.9</v>
@@ -21240,7 +21262,7 @@
         <v>323</v>
       </c>
       <c r="K412" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>413.8</v>
@@ -21291,7 +21313,7 @@
         <v>324</v>
       </c>
       <c r="K413" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L413" t="n">
         <v>413.9</v>
@@ -21342,7 +21364,7 @@
         <v>325</v>
       </c>
       <c r="K414" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L414" t="n">
         <v>414</v>
@@ -21393,7 +21415,7 @@
         <v>326</v>
       </c>
       <c r="K415" t="n">
-        <v>13.04347826086956</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L415" t="n">
         <v>414.1</v>
@@ -21444,7 +21466,7 @@
         <v>328</v>
       </c>
       <c r="K416" t="n">
-        <v>20</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L416" t="n">
         <v>414.2</v>
@@ -21495,7 +21517,7 @@
         <v>329</v>
       </c>
       <c r="K417" t="n">
-        <v>15.38461538461539</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L417" t="n">
         <v>414.4</v>
@@ -21546,7 +21568,7 @@
         <v>329</v>
       </c>
       <c r="K418" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L418" t="n">
         <v>414.6</v>
@@ -21597,7 +21619,7 @@
         <v>329</v>
       </c>
       <c r="K419" t="n">
-        <v>4.347826086956522</v>
+        <v>20</v>
       </c>
       <c r="L419" t="n">
         <v>414.6</v>
@@ -21648,7 +21670,7 @@
         <v>329</v>
       </c>
       <c r="K420" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L420" t="n">
         <v>414.8</v>
@@ -21699,7 +21721,7 @@
         <v>330</v>
       </c>
       <c r="K421" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L421" t="n">
         <v>415.2</v>
@@ -21750,7 +21772,7 @@
         <v>331</v>
       </c>
       <c r="K422" t="n">
-        <v>4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L422" t="n">
         <v>415.4</v>
@@ -21801,7 +21823,7 @@
         <v>332</v>
       </c>
       <c r="K423" t="n">
-        <v>13.04347826086956</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L423" t="n">
         <v>415.6</v>
@@ -21852,7 +21874,7 @@
         <v>332</v>
       </c>
       <c r="K424" t="n">
-        <v>18.18181818181818</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L424" t="n">
         <v>415.9</v>
@@ -21903,7 +21925,7 @@
         <v>333</v>
       </c>
       <c r="K425" t="n">
-        <v>18.18181818181818</v>
+        <v>20</v>
       </c>
       <c r="L425" t="n">
         <v>416.2</v>
@@ -21954,7 +21976,7 @@
         <v>335</v>
       </c>
       <c r="K426" t="n">
-        <v>18.18181818181818</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L426" t="n">
         <v>416.5</v>
@@ -22005,7 +22027,7 @@
         <v>336</v>
       </c>
       <c r="K427" t="n">
-        <v>23.80952380952381</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L427" t="n">
         <v>416.8</v>
@@ -22056,7 +22078,7 @@
         <v>336</v>
       </c>
       <c r="K428" t="n">
-        <v>23.80952380952381</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L428" t="n">
         <v>417.1</v>
@@ -22107,7 +22129,7 @@
         <v>336</v>
       </c>
       <c r="K429" t="n">
-        <v>15.78947368421053</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L429" t="n">
         <v>417.4</v>
@@ -22158,7 +22180,7 @@
         <v>336</v>
       </c>
       <c r="K430" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L430" t="n">
         <v>417.7</v>
@@ -22209,7 +22231,7 @@
         <v>336</v>
       </c>
       <c r="K431" t="n">
-        <v>37.5</v>
+        <v>20</v>
       </c>
       <c r="L431" t="n">
         <v>417.9</v>
@@ -22260,7 +22282,7 @@
         <v>336</v>
       </c>
       <c r="K432" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L432" t="n">
         <v>418</v>
@@ -22311,7 +22333,7 @@
         <v>339</v>
       </c>
       <c r="K433" t="n">
-        <v>-6.666666666666667</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L433" t="n">
         <v>417.7</v>
@@ -22362,7 +22384,7 @@
         <v>339</v>
       </c>
       <c r="K434" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L434" t="n">
         <v>417.4</v>
@@ -22413,7 +22435,7 @@
         <v>341</v>
       </c>
       <c r="K435" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L435" t="n">
         <v>417.4</v>
@@ -22464,7 +22486,7 @@
         <v>341</v>
       </c>
       <c r="K436" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L436" t="n">
         <v>417.2</v>
@@ -22515,7 +22537,7 @@
         <v>341</v>
       </c>
       <c r="K437" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L437" t="n">
         <v>417.1</v>
@@ -22566,7 +22588,7 @@
         <v>341</v>
       </c>
       <c r="K438" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L438" t="n">
         <v>417</v>
@@ -22617,7 +22639,7 @@
         <v>341</v>
       </c>
       <c r="K439" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L439" t="n">
         <v>416.9</v>
@@ -22668,7 +22690,7 @@
         <v>341</v>
       </c>
       <c r="K440" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L440" t="n">
         <v>416.8</v>
@@ -22719,7 +22741,7 @@
         <v>342</v>
       </c>
       <c r="K441" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>416.8</v>
@@ -22770,7 +22792,7 @@
         <v>343</v>
       </c>
       <c r="K442" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L442" t="n">
         <v>416.7</v>
@@ -22821,7 +22843,7 @@
         <v>343</v>
       </c>
       <c r="K443" t="n">
-        <v>-9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L443" t="n">
         <v>416.9</v>
@@ -22872,7 +22894,7 @@
         <v>343</v>
       </c>
       <c r="K444" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L444" t="n">
         <v>417.1</v>
@@ -22923,7 +22945,7 @@
         <v>344</v>
       </c>
       <c r="K445" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L445" t="n">
         <v>417.2</v>
@@ -22974,7 +22996,7 @@
         <v>344</v>
       </c>
       <c r="K446" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L446" t="n">
         <v>417.3</v>
@@ -23025,7 +23047,7 @@
         <v>345</v>
       </c>
       <c r="K447" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L447" t="n">
         <v>417.5</v>
@@ -23076,7 +23098,7 @@
         <v>349</v>
       </c>
       <c r="K448" t="n">
-        <v>-23.07692307692308</v>
+        <v>-25</v>
       </c>
       <c r="L448" t="n">
         <v>417.3</v>
@@ -23127,7 +23149,7 @@
         <v>351</v>
       </c>
       <c r="K449" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L449" t="n">
         <v>417.3</v>
@@ -23229,7 +23251,7 @@
         <v>353</v>
       </c>
       <c r="K451" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L451" t="n">
         <v>417.3</v>
@@ -23280,7 +23302,7 @@
         <v>353</v>
       </c>
       <c r="K452" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L452" t="n">
         <v>417.3</v>
@@ -23331,7 +23353,7 @@
         <v>353</v>
       </c>
       <c r="K453" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L453" t="n">
         <v>417.3</v>
@@ -23382,7 +23404,7 @@
         <v>354</v>
       </c>
       <c r="K454" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>417.4</v>
@@ -23433,7 +23455,7 @@
         <v>355</v>
       </c>
       <c r="K455" t="n">
-        <v>14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L455" t="n">
         <v>417.5</v>
@@ -23484,7 +23506,7 @@
         <v>357</v>
       </c>
       <c r="K456" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L456" t="n">
         <v>417.4</v>
@@ -23535,7 +23557,7 @@
         <v>360</v>
       </c>
       <c r="K457" t="n">
-        <v>15.78947368421053</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L457" t="n">
         <v>417.5</v>
@@ -23586,7 +23608,7 @@
         <v>360</v>
       </c>
       <c r="K458" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L458" t="n">
         <v>418</v>
@@ -23637,7 +23659,7 @@
         <v>361</v>
       </c>
       <c r="K459" t="n">
-        <v>10</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L459" t="n">
         <v>418.2</v>
@@ -23739,7 +23761,7 @@
         <v>363</v>
       </c>
       <c r="K461" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L461" t="n">
         <v>418.1</v>
@@ -23790,7 +23812,7 @@
         <v>365</v>
       </c>
       <c r="K462" t="n">
-        <v>9.090909090909092</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L462" t="n">
         <v>418.3</v>
@@ -23841,7 +23863,7 @@
         <v>366</v>
       </c>
       <c r="K463" t="n">
-        <v>13.04347826086956</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L463" t="n">
         <v>418.6</v>
@@ -23892,7 +23914,7 @@
         <v>366</v>
       </c>
       <c r="K464" t="n">
-        <v>13.04347826086956</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L464" t="n">
         <v>418.8</v>
@@ -23943,7 +23965,7 @@
         <v>371</v>
       </c>
       <c r="K465" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L465" t="n">
         <v>418.4</v>
@@ -23994,7 +24016,7 @@
         <v>372</v>
       </c>
       <c r="K466" t="n">
-        <v>-7.142857142857142</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L466" t="n">
         <v>418.3</v>
@@ -24045,7 +24067,7 @@
         <v>373</v>
       </c>
       <c r="K467" t="n">
-        <v>-14.28571428571428</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L467" t="n">
         <v>417.8</v>
@@ -24096,7 +24118,7 @@
         <v>373</v>
       </c>
       <c r="K468" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L468" t="n">
         <v>417.3</v>
@@ -24147,7 +24169,7 @@
         <v>374</v>
       </c>
       <c r="K469" t="n">
-        <v>-13.04347826086956</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L469" t="n">
         <v>416.8</v>
@@ -24198,7 +24220,7 @@
         <v>377</v>
       </c>
       <c r="K470" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L470" t="n">
         <v>416.8</v>

--- a/BackTest/2019-10-15 BackTest MTL.xlsx
+++ b/BackTest/2019-10-15 BackTest MTL.xlsx
@@ -8606,17 +8606,13 @@
         <v>404.55</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>399</v>
-      </c>
-      <c r="K235" t="n">
-        <v>399</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
@@ -8645,22 +8641,14 @@
         <v>404.4</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>399</v>
-      </c>
-      <c r="K236" t="n">
-        <v>399</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8699,11 +8687,7 @@
       <c r="K237" t="n">
         <v>399</v>
       </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8823,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K240" t="n">
         <v>399</v>
@@ -8866,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K241" t="n">
         <v>399</v>
@@ -8909,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K242" t="n">
         <v>399</v>
@@ -8952,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K243" t="n">
         <v>399</v>
@@ -9032,14 +9016,12 @@
         <v>403.1166666666667</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>400</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
         <v>399</v>
       </c>
@@ -9124,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K247" t="n">
         <v>399</v>
@@ -9161,14 +9143,12 @@
         <v>402.7833333333334</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>400</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
         <v>399</v>
       </c>
@@ -9204,14 +9184,12 @@
         <v>402.6833333333333</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>400</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
         <v>399</v>
       </c>
@@ -9247,14 +9225,12 @@
         <v>402.6</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>400</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
         <v>399</v>
       </c>
@@ -9290,14 +9266,12 @@
         <v>402.5</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>400</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
         <v>399</v>
       </c>
@@ -9333,14 +9307,12 @@
         <v>402.4333333333333</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>400</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
         <v>399</v>
       </c>
@@ -9376,14 +9348,12 @@
         <v>402.3833333333333</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>401</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
         <v>399</v>
       </c>
@@ -9419,14 +9389,12 @@
         <v>402.2833333333334</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>399</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
         <v>399</v>
       </c>
@@ -9462,14 +9430,12 @@
         <v>402.1666666666667</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>399</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
         <v>399</v>
       </c>
@@ -9505,14 +9471,12 @@
         <v>402.05</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>401</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
         <v>399</v>
       </c>
@@ -9548,14 +9512,12 @@
         <v>401.9833333333333</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>401</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
         <v>399</v>
       </c>
@@ -9591,14 +9553,12 @@
         <v>401.9166666666667</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>401</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
         <v>399</v>
       </c>
@@ -9634,14 +9594,12 @@
         <v>401.8333333333333</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>400</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
         <v>399</v>
       </c>
@@ -9677,14 +9635,12 @@
         <v>401.7666666666667</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>402</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
         <v>399</v>
       </c>
@@ -9720,14 +9676,12 @@
         <v>401.65</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>402</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
         <v>399</v>
       </c>
@@ -9763,14 +9717,12 @@
         <v>401.5833333333333</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>400</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
         <v>399</v>
       </c>
@@ -9806,14 +9758,12 @@
         <v>401.5</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>400</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
         <v>399</v>
       </c>
@@ -9849,14 +9799,12 @@
         <v>401.45</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>402</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
         <v>399</v>
       </c>
@@ -9892,14 +9840,12 @@
         <v>401.3666666666667</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>401</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
         <v>399</v>
       </c>
@@ -9935,14 +9881,12 @@
         <v>401.2833333333334</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>402</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
         <v>399</v>
       </c>
@@ -9978,14 +9922,12 @@
         <v>401.2166666666666</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>402</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
         <v>399</v>
       </c>
@@ -10021,14 +9963,12 @@
         <v>401.1166666666667</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>402</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
         <v>399</v>
       </c>
@@ -10064,14 +10004,12 @@
         <v>401.0666666666667</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>404</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
         <v>399</v>
       </c>
@@ -10107,14 +10045,12 @@
         <v>401.0166666666667</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>404</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
         <v>399</v>
       </c>
@@ -12572,1664 +12508,1946 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
         <v>399</v>
       </c>
       <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>408</v>
+      </c>
+      <c r="C331" t="n">
+        <v>408</v>
+      </c>
+      <c r="D331" t="n">
+        <v>408</v>
+      </c>
+      <c r="E331" t="n">
+        <v>408</v>
+      </c>
+      <c r="F331" t="n">
+        <v>576.6449</v>
+      </c>
+      <c r="G331" t="n">
+        <v>406.35</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>399</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>407</v>
+      </c>
+      <c r="C332" t="n">
+        <v>407</v>
+      </c>
+      <c r="D332" t="n">
+        <v>407</v>
+      </c>
+      <c r="E332" t="n">
+        <v>407</v>
+      </c>
+      <c r="F332" t="n">
+        <v>500</v>
+      </c>
+      <c r="G332" t="n">
+        <v>406.3833333333333</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>399</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>407</v>
+      </c>
+      <c r="C333" t="n">
+        <v>407</v>
+      </c>
+      <c r="D333" t="n">
+        <v>407</v>
+      </c>
+      <c r="E333" t="n">
+        <v>407</v>
+      </c>
+      <c r="F333" t="n">
+        <v>1510.376</v>
+      </c>
+      <c r="G333" t="n">
+        <v>406.4166666666667</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>399</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>405</v>
+      </c>
+      <c r="C334" t="n">
+        <v>405</v>
+      </c>
+      <c r="D334" t="n">
+        <v>405</v>
+      </c>
+      <c r="E334" t="n">
+        <v>405</v>
+      </c>
+      <c r="F334" t="n">
+        <v>110.2753</v>
+      </c>
+      <c r="G334" t="n">
+        <v>406.45</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>399</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>405</v>
+      </c>
+      <c r="C335" t="n">
+        <v>405</v>
+      </c>
+      <c r="D335" t="n">
+        <v>405</v>
+      </c>
+      <c r="E335" t="n">
+        <v>405</v>
+      </c>
+      <c r="F335" t="n">
+        <v>473.6126</v>
+      </c>
+      <c r="G335" t="n">
+        <v>406.45</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>399</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>406</v>
+      </c>
+      <c r="C336" t="n">
+        <v>406</v>
+      </c>
+      <c r="D336" t="n">
+        <v>406</v>
+      </c>
+      <c r="E336" t="n">
+        <v>406</v>
+      </c>
+      <c r="F336" t="n">
+        <v>2288.7791</v>
+      </c>
+      <c r="G336" t="n">
+        <v>406.5</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>399</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>405</v>
+      </c>
+      <c r="C337" t="n">
+        <v>405</v>
+      </c>
+      <c r="D337" t="n">
+        <v>405</v>
+      </c>
+      <c r="E337" t="n">
+        <v>405</v>
+      </c>
+      <c r="F337" t="n">
+        <v>222.5461</v>
+      </c>
+      <c r="G337" t="n">
+        <v>406.5333333333334</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>399</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>405</v>
+      </c>
+      <c r="C338" t="n">
+        <v>405</v>
+      </c>
+      <c r="D338" t="n">
+        <v>405</v>
+      </c>
+      <c r="E338" t="n">
+        <v>405</v>
+      </c>
+      <c r="F338" t="n">
+        <v>370.7857</v>
+      </c>
+      <c r="G338" t="n">
+        <v>406.55</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>399</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>405</v>
+      </c>
+      <c r="C339" t="n">
+        <v>405</v>
+      </c>
+      <c r="D339" t="n">
+        <v>405</v>
+      </c>
+      <c r="E339" t="n">
+        <v>405</v>
+      </c>
+      <c r="F339" t="n">
+        <v>3325</v>
+      </c>
+      <c r="G339" t="n">
+        <v>406.5666666666667</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>399</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>405</v>
+      </c>
+      <c r="C340" t="n">
+        <v>405</v>
+      </c>
+      <c r="D340" t="n">
+        <v>405</v>
+      </c>
+      <c r="E340" t="n">
+        <v>405</v>
+      </c>
+      <c r="F340" t="n">
+        <v>2526.7771</v>
+      </c>
+      <c r="G340" t="n">
+        <v>406.5833333333333</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>399</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>404</v>
+      </c>
+      <c r="C341" t="n">
+        <v>404</v>
+      </c>
+      <c r="D341" t="n">
+        <v>404</v>
+      </c>
+      <c r="E341" t="n">
+        <v>404</v>
+      </c>
+      <c r="F341" t="n">
+        <v>2374.0156</v>
+      </c>
+      <c r="G341" t="n">
+        <v>406.5833333333333</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>399</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>405</v>
+      </c>
+      <c r="C342" t="n">
+        <v>405</v>
+      </c>
+      <c r="D342" t="n">
+        <v>405</v>
+      </c>
+      <c r="E342" t="n">
+        <v>405</v>
+      </c>
+      <c r="F342" t="n">
+        <v>100.0005</v>
+      </c>
+      <c r="G342" t="n">
+        <v>406.6333333333333</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>399</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>405</v>
+      </c>
+      <c r="C343" t="n">
+        <v>405</v>
+      </c>
+      <c r="D343" t="n">
+        <v>405</v>
+      </c>
+      <c r="E343" t="n">
+        <v>405</v>
+      </c>
+      <c r="F343" t="n">
+        <v>955.9004</v>
+      </c>
+      <c r="G343" t="n">
+        <v>406.6833333333333</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>399</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>405</v>
+      </c>
+      <c r="C344" t="n">
+        <v>405</v>
+      </c>
+      <c r="D344" t="n">
+        <v>405</v>
+      </c>
+      <c r="E344" t="n">
+        <v>405</v>
+      </c>
+      <c r="F344" t="n">
+        <v>350</v>
+      </c>
+      <c r="G344" t="n">
+        <v>406.6833333333333</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>399</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>405</v>
+      </c>
+      <c r="C345" t="n">
+        <v>405</v>
+      </c>
+      <c r="D345" t="n">
+        <v>405</v>
+      </c>
+      <c r="E345" t="n">
+        <v>405</v>
+      </c>
+      <c r="F345" t="n">
+        <v>740.7588</v>
+      </c>
+      <c r="G345" t="n">
+        <v>406.6833333333333</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>399</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>404</v>
+      </c>
+      <c r="C346" t="n">
+        <v>403</v>
+      </c>
+      <c r="D346" t="n">
+        <v>404</v>
+      </c>
+      <c r="E346" t="n">
+        <v>403</v>
+      </c>
+      <c r="F346" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G346" t="n">
+        <v>406.6666666666667</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>399</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>405</v>
+      </c>
+      <c r="C347" t="n">
+        <v>405</v>
+      </c>
+      <c r="D347" t="n">
+        <v>405</v>
+      </c>
+      <c r="E347" t="n">
+        <v>405</v>
+      </c>
+      <c r="F347" t="n">
+        <v>40.2246</v>
+      </c>
+      <c r="G347" t="n">
+        <v>406.6833333333333</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>399</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>406</v>
+      </c>
+      <c r="C348" t="n">
+        <v>406</v>
+      </c>
+      <c r="D348" t="n">
+        <v>406</v>
+      </c>
+      <c r="E348" t="n">
+        <v>406</v>
+      </c>
+      <c r="F348" t="n">
+        <v>1230.9482</v>
+      </c>
+      <c r="G348" t="n">
+        <v>406.7</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>399</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>404</v>
+      </c>
+      <c r="C349" t="n">
+        <v>404</v>
+      </c>
+      <c r="D349" t="n">
+        <v>404</v>
+      </c>
+      <c r="E349" t="n">
+        <v>404</v>
+      </c>
+      <c r="F349" t="n">
+        <v>1</v>
+      </c>
+      <c r="G349" t="n">
+        <v>406.6833333333333</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>399</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>406</v>
+      </c>
+      <c r="C350" t="n">
+        <v>406</v>
+      </c>
+      <c r="D350" t="n">
+        <v>406</v>
+      </c>
+      <c r="E350" t="n">
+        <v>406</v>
+      </c>
+      <c r="F350" t="n">
+        <v>1</v>
+      </c>
+      <c r="G350" t="n">
+        <v>406.75</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>399</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>406</v>
+      </c>
+      <c r="C351" t="n">
+        <v>406</v>
+      </c>
+      <c r="D351" t="n">
+        <v>406</v>
+      </c>
+      <c r="E351" t="n">
+        <v>406</v>
+      </c>
+      <c r="F351" t="n">
+        <v>431.0344</v>
+      </c>
+      <c r="G351" t="n">
+        <v>406.7666666666667</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>399</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>404</v>
+      </c>
+      <c r="C352" t="n">
+        <v>406</v>
+      </c>
+      <c r="D352" t="n">
+        <v>406</v>
+      </c>
+      <c r="E352" t="n">
+        <v>404</v>
+      </c>
+      <c r="F352" t="n">
+        <v>2</v>
+      </c>
+      <c r="G352" t="n">
+        <v>406.7666666666667</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>399</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>405</v>
+      </c>
+      <c r="C353" t="n">
+        <v>405</v>
+      </c>
+      <c r="D353" t="n">
+        <v>405</v>
+      </c>
+      <c r="E353" t="n">
+        <v>405</v>
+      </c>
+      <c r="F353" t="n">
+        <v>838.9232</v>
+      </c>
+      <c r="G353" t="n">
+        <v>406.75</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0</v>
+      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>399</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>404</v>
+      </c>
+      <c r="C354" t="n">
+        <v>404</v>
+      </c>
+      <c r="D354" t="n">
+        <v>404</v>
+      </c>
+      <c r="E354" t="n">
+        <v>404</v>
+      </c>
+      <c r="F354" t="n">
+        <v>5646.0548</v>
+      </c>
+      <c r="G354" t="n">
+        <v>406.6833333333333</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0</v>
+      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>399</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>405</v>
+      </c>
+      <c r="C355" t="n">
+        <v>406</v>
+      </c>
+      <c r="D355" t="n">
+        <v>406</v>
+      </c>
+      <c r="E355" t="n">
+        <v>405</v>
+      </c>
+      <c r="F355" t="n">
+        <v>1828.9031</v>
+      </c>
+      <c r="G355" t="n">
+        <v>406.6666666666667</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0</v>
+      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>399</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>406</v>
+      </c>
+      <c r="C356" t="n">
+        <v>406</v>
+      </c>
+      <c r="D356" t="n">
+        <v>406</v>
+      </c>
+      <c r="E356" t="n">
+        <v>406</v>
+      </c>
+      <c r="F356" t="n">
+        <v>972</v>
+      </c>
+      <c r="G356" t="n">
+        <v>406.65</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0</v>
+      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>399</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>405</v>
+      </c>
+      <c r="C357" t="n">
+        <v>406</v>
+      </c>
+      <c r="D357" t="n">
+        <v>406</v>
+      </c>
+      <c r="E357" t="n">
+        <v>405</v>
+      </c>
+      <c r="F357" t="n">
+        <v>2003.3238</v>
+      </c>
+      <c r="G357" t="n">
+        <v>406.6333333333333</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>399</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>407</v>
+      </c>
+      <c r="C358" t="n">
+        <v>407</v>
+      </c>
+      <c r="D358" t="n">
+        <v>407</v>
+      </c>
+      <c r="E358" t="n">
+        <v>407</v>
+      </c>
+      <c r="F358" t="n">
+        <v>32</v>
+      </c>
+      <c r="G358" t="n">
+        <v>406.6333333333333</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>399</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>408</v>
+      </c>
+      <c r="C359" t="n">
+        <v>408</v>
+      </c>
+      <c r="D359" t="n">
+        <v>408</v>
+      </c>
+      <c r="E359" t="n">
+        <v>408</v>
+      </c>
+      <c r="F359" t="n">
+        <v>1220.0771</v>
+      </c>
+      <c r="G359" t="n">
+        <v>406.65</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>399</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>408</v>
+      </c>
+      <c r="C360" t="n">
+        <v>409</v>
+      </c>
+      <c r="D360" t="n">
+        <v>409</v>
+      </c>
+      <c r="E360" t="n">
+        <v>408</v>
+      </c>
+      <c r="F360" t="n">
+        <v>138.8386</v>
+      </c>
+      <c r="G360" t="n">
+        <v>406.6833333333333</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0</v>
+      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>399</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>409</v>
+      </c>
+      <c r="C361" t="n">
+        <v>409</v>
+      </c>
+      <c r="D361" t="n">
+        <v>409</v>
+      </c>
+      <c r="E361" t="n">
+        <v>409</v>
+      </c>
+      <c r="F361" t="n">
+        <v>159.1577</v>
+      </c>
+      <c r="G361" t="n">
+        <v>406.7333333333333</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0</v>
+      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>399</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>409</v>
+      </c>
+      <c r="C362" t="n">
+        <v>408</v>
+      </c>
+      <c r="D362" t="n">
+        <v>409</v>
+      </c>
+      <c r="E362" t="n">
+        <v>408</v>
+      </c>
+      <c r="F362" t="n">
+        <v>3899.5631</v>
+      </c>
+      <c r="G362" t="n">
+        <v>406.75</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>399</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>407</v>
+      </c>
+      <c r="C363" t="n">
+        <v>408</v>
+      </c>
+      <c r="D363" t="n">
+        <v>408</v>
+      </c>
+      <c r="E363" t="n">
+        <v>406</v>
+      </c>
+      <c r="F363" t="n">
+        <v>801</v>
+      </c>
+      <c r="G363" t="n">
+        <v>406.7833333333334</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>399</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>408</v>
+      </c>
+      <c r="C364" t="n">
+        <v>408</v>
+      </c>
+      <c r="D364" t="n">
+        <v>409</v>
+      </c>
+      <c r="E364" t="n">
+        <v>408</v>
+      </c>
+      <c r="F364" t="n">
+        <v>66</v>
+      </c>
+      <c r="G364" t="n">
+        <v>406.8</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0</v>
+      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>399</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>406</v>
+      </c>
+      <c r="C365" t="n">
+        <v>406</v>
+      </c>
+      <c r="D365" t="n">
+        <v>406</v>
+      </c>
+      <c r="E365" t="n">
+        <v>406</v>
+      </c>
+      <c r="F365" t="n">
+        <v>246</v>
+      </c>
+      <c r="G365" t="n">
+        <v>406.8</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0</v>
+      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>399</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>408</v>
+      </c>
+      <c r="C366" t="n">
+        <v>409</v>
+      </c>
+      <c r="D366" t="n">
+        <v>409</v>
+      </c>
+      <c r="E366" t="n">
+        <v>408</v>
+      </c>
+      <c r="F366" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="G366" t="n">
+        <v>406.8333333333333</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0</v>
+      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>399</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>408</v>
+      </c>
+      <c r="C367" t="n">
+        <v>408</v>
+      </c>
+      <c r="D367" t="n">
+        <v>408</v>
+      </c>
+      <c r="E367" t="n">
+        <v>408</v>
+      </c>
+      <c r="F367" t="n">
+        <v>2</v>
+      </c>
+      <c r="G367" t="n">
+        <v>406.8333333333333</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0</v>
+      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>399</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>409</v>
+      </c>
+      <c r="C368" t="n">
+        <v>409</v>
+      </c>
+      <c r="D368" t="n">
+        <v>409</v>
+      </c>
+      <c r="E368" t="n">
+        <v>409</v>
+      </c>
+      <c r="F368" t="n">
+        <v>77.5843</v>
+      </c>
+      <c r="G368" t="n">
+        <v>406.8666666666667</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0</v>
+      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>399</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>409</v>
+      </c>
+      <c r="C369" t="n">
+        <v>409</v>
+      </c>
+      <c r="D369" t="n">
+        <v>409</v>
+      </c>
+      <c r="E369" t="n">
+        <v>409</v>
+      </c>
+      <c r="F369" t="n">
+        <v>27.0317</v>
+      </c>
+      <c r="G369" t="n">
+        <v>406.9</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0</v>
+      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>399</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>408</v>
+      </c>
+      <c r="C370" t="n">
+        <v>408</v>
+      </c>
+      <c r="D370" t="n">
+        <v>408</v>
+      </c>
+      <c r="E370" t="n">
+        <v>408</v>
+      </c>
+      <c r="F370" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="G370" t="n">
+        <v>406.9</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0</v>
+      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>399</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>408</v>
+      </c>
+      <c r="C371" t="n">
+        <v>409</v>
+      </c>
+      <c r="D371" t="n">
+        <v>409</v>
+      </c>
+      <c r="E371" t="n">
+        <v>408</v>
+      </c>
+      <c r="F371" t="n">
+        <v>4688.38</v>
+      </c>
+      <c r="G371" t="n">
+        <v>406.9333333333333</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0</v>
+      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>399</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>409</v>
+      </c>
+      <c r="C372" t="n">
+        <v>410</v>
+      </c>
+      <c r="D372" t="n">
+        <v>410</v>
+      </c>
+      <c r="E372" t="n">
+        <v>409</v>
+      </c>
+      <c r="F372" t="n">
+        <v>2680</v>
+      </c>
+      <c r="G372" t="n">
+        <v>406.9666666666666</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0</v>
+      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>399</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>410</v>
+      </c>
+      <c r="C373" t="n">
+        <v>411</v>
+      </c>
+      <c r="D373" t="n">
+        <v>411</v>
+      </c>
+      <c r="E373" t="n">
+        <v>410</v>
+      </c>
+      <c r="F373" t="n">
+        <v>6256.1245</v>
+      </c>
+      <c r="G373" t="n">
+        <v>407.0166666666667</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0</v>
+      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>399</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>411</v>
+      </c>
+      <c r="C374" t="n">
+        <v>412</v>
+      </c>
+      <c r="D374" t="n">
+        <v>412</v>
+      </c>
+      <c r="E374" t="n">
+        <v>411</v>
+      </c>
+      <c r="F374" t="n">
+        <v>16897.4266</v>
+      </c>
+      <c r="G374" t="n">
+        <v>407.0833333333333</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0</v>
+      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>399</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>413</v>
+      </c>
+      <c r="C375" t="n">
+        <v>413</v>
+      </c>
+      <c r="D375" t="n">
+        <v>413</v>
+      </c>
+      <c r="E375" t="n">
+        <v>412</v>
+      </c>
+      <c r="F375" t="n">
+        <v>2813.7409</v>
+      </c>
+      <c r="G375" t="n">
+        <v>407.1666666666667</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0</v>
+      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>399</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>413</v>
+      </c>
+      <c r="C376" t="n">
+        <v>413</v>
+      </c>
+      <c r="D376" t="n">
+        <v>414</v>
+      </c>
+      <c r="E376" t="n">
+        <v>413</v>
+      </c>
+      <c r="F376" t="n">
+        <v>6470.8913</v>
+      </c>
+      <c r="G376" t="n">
+        <v>407.25</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0</v>
+      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>399</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>413</v>
+      </c>
+      <c r="C377" t="n">
+        <v>413</v>
+      </c>
+      <c r="D377" t="n">
+        <v>413</v>
+      </c>
+      <c r="E377" t="n">
+        <v>413</v>
+      </c>
+      <c r="F377" t="n">
+        <v>1786.4019</v>
+      </c>
+      <c r="G377" t="n">
+        <v>407.35</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="n">
+        <v>1</v>
+      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>399</v>
+      </c>
+      <c r="L377" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M330" t="n">
-        <v>1.020062656641604</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>408</v>
-      </c>
-      <c r="C331" t="n">
-        <v>408</v>
-      </c>
-      <c r="D331" t="n">
-        <v>408</v>
-      </c>
-      <c r="E331" t="n">
-        <v>408</v>
-      </c>
-      <c r="F331" t="n">
-        <v>576.6449</v>
-      </c>
-      <c r="G331" t="n">
-        <v>406.35</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="n">
-        <v>1</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>407</v>
-      </c>
-      <c r="C332" t="n">
-        <v>407</v>
-      </c>
-      <c r="D332" t="n">
-        <v>407</v>
-      </c>
-      <c r="E332" t="n">
-        <v>407</v>
-      </c>
-      <c r="F332" t="n">
-        <v>500</v>
-      </c>
-      <c r="G332" t="n">
-        <v>406.3833333333333</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="n">
-        <v>1</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>407</v>
-      </c>
-      <c r="C333" t="n">
-        <v>407</v>
-      </c>
-      <c r="D333" t="n">
-        <v>407</v>
-      </c>
-      <c r="E333" t="n">
-        <v>407</v>
-      </c>
-      <c r="F333" t="n">
-        <v>1510.376</v>
-      </c>
-      <c r="G333" t="n">
-        <v>406.4166666666667</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>405</v>
-      </c>
-      <c r="C334" t="n">
-        <v>405</v>
-      </c>
-      <c r="D334" t="n">
-        <v>405</v>
-      </c>
-      <c r="E334" t="n">
-        <v>405</v>
-      </c>
-      <c r="F334" t="n">
-        <v>110.2753</v>
-      </c>
-      <c r="G334" t="n">
-        <v>406.45</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>405</v>
-      </c>
-      <c r="C335" t="n">
-        <v>405</v>
-      </c>
-      <c r="D335" t="n">
-        <v>405</v>
-      </c>
-      <c r="E335" t="n">
-        <v>405</v>
-      </c>
-      <c r="F335" t="n">
-        <v>473.6126</v>
-      </c>
-      <c r="G335" t="n">
-        <v>406.45</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>406</v>
-      </c>
-      <c r="C336" t="n">
-        <v>406</v>
-      </c>
-      <c r="D336" t="n">
-        <v>406</v>
-      </c>
-      <c r="E336" t="n">
-        <v>406</v>
-      </c>
-      <c r="F336" t="n">
-        <v>2288.7791</v>
-      </c>
-      <c r="G336" t="n">
-        <v>406.5</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>405</v>
-      </c>
-      <c r="C337" t="n">
-        <v>405</v>
-      </c>
-      <c r="D337" t="n">
-        <v>405</v>
-      </c>
-      <c r="E337" t="n">
-        <v>405</v>
-      </c>
-      <c r="F337" t="n">
-        <v>222.5461</v>
-      </c>
-      <c r="G337" t="n">
-        <v>406.5333333333334</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>405</v>
-      </c>
-      <c r="C338" t="n">
-        <v>405</v>
-      </c>
-      <c r="D338" t="n">
-        <v>405</v>
-      </c>
-      <c r="E338" t="n">
-        <v>405</v>
-      </c>
-      <c r="F338" t="n">
-        <v>370.7857</v>
-      </c>
-      <c r="G338" t="n">
-        <v>406.55</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>405</v>
-      </c>
-      <c r="C339" t="n">
-        <v>405</v>
-      </c>
-      <c r="D339" t="n">
-        <v>405</v>
-      </c>
-      <c r="E339" t="n">
-        <v>405</v>
-      </c>
-      <c r="F339" t="n">
-        <v>3325</v>
-      </c>
-      <c r="G339" t="n">
-        <v>406.5666666666667</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>405</v>
-      </c>
-      <c r="C340" t="n">
-        <v>405</v>
-      </c>
-      <c r="D340" t="n">
-        <v>405</v>
-      </c>
-      <c r="E340" t="n">
-        <v>405</v>
-      </c>
-      <c r="F340" t="n">
-        <v>2526.7771</v>
-      </c>
-      <c r="G340" t="n">
-        <v>406.5833333333333</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>404</v>
-      </c>
-      <c r="C341" t="n">
-        <v>404</v>
-      </c>
-      <c r="D341" t="n">
-        <v>404</v>
-      </c>
-      <c r="E341" t="n">
-        <v>404</v>
-      </c>
-      <c r="F341" t="n">
-        <v>2374.0156</v>
-      </c>
-      <c r="G341" t="n">
-        <v>406.5833333333333</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>405</v>
-      </c>
-      <c r="C342" t="n">
-        <v>405</v>
-      </c>
-      <c r="D342" t="n">
-        <v>405</v>
-      </c>
-      <c r="E342" t="n">
-        <v>405</v>
-      </c>
-      <c r="F342" t="n">
-        <v>100.0005</v>
-      </c>
-      <c r="G342" t="n">
-        <v>406.6333333333333</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>405</v>
-      </c>
-      <c r="C343" t="n">
-        <v>405</v>
-      </c>
-      <c r="D343" t="n">
-        <v>405</v>
-      </c>
-      <c r="E343" t="n">
-        <v>405</v>
-      </c>
-      <c r="F343" t="n">
-        <v>955.9004</v>
-      </c>
-      <c r="G343" t="n">
-        <v>406.6833333333333</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>405</v>
-      </c>
-      <c r="C344" t="n">
-        <v>405</v>
-      </c>
-      <c r="D344" t="n">
-        <v>405</v>
-      </c>
-      <c r="E344" t="n">
-        <v>405</v>
-      </c>
-      <c r="F344" t="n">
-        <v>350</v>
-      </c>
-      <c r="G344" t="n">
-        <v>406.6833333333333</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>405</v>
-      </c>
-      <c r="C345" t="n">
-        <v>405</v>
-      </c>
-      <c r="D345" t="n">
-        <v>405</v>
-      </c>
-      <c r="E345" t="n">
-        <v>405</v>
-      </c>
-      <c r="F345" t="n">
-        <v>740.7588</v>
-      </c>
-      <c r="G345" t="n">
-        <v>406.6833333333333</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>404</v>
-      </c>
-      <c r="C346" t="n">
-        <v>403</v>
-      </c>
-      <c r="D346" t="n">
-        <v>404</v>
-      </c>
-      <c r="E346" t="n">
-        <v>403</v>
-      </c>
-      <c r="F346" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G346" t="n">
-        <v>406.6666666666667</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>405</v>
-      </c>
-      <c r="C347" t="n">
-        <v>405</v>
-      </c>
-      <c r="D347" t="n">
-        <v>405</v>
-      </c>
-      <c r="E347" t="n">
-        <v>405</v>
-      </c>
-      <c r="F347" t="n">
-        <v>40.2246</v>
-      </c>
-      <c r="G347" t="n">
-        <v>406.6833333333333</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>406</v>
-      </c>
-      <c r="C348" t="n">
-        <v>406</v>
-      </c>
-      <c r="D348" t="n">
-        <v>406</v>
-      </c>
-      <c r="E348" t="n">
-        <v>406</v>
-      </c>
-      <c r="F348" t="n">
-        <v>1230.9482</v>
-      </c>
-      <c r="G348" t="n">
-        <v>406.7</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>404</v>
-      </c>
-      <c r="C349" t="n">
-        <v>404</v>
-      </c>
-      <c r="D349" t="n">
-        <v>404</v>
-      </c>
-      <c r="E349" t="n">
-        <v>404</v>
-      </c>
-      <c r="F349" t="n">
-        <v>1</v>
-      </c>
-      <c r="G349" t="n">
-        <v>406.6833333333333</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>406</v>
-      </c>
-      <c r="C350" t="n">
-        <v>406</v>
-      </c>
-      <c r="D350" t="n">
-        <v>406</v>
-      </c>
-      <c r="E350" t="n">
-        <v>406</v>
-      </c>
-      <c r="F350" t="n">
-        <v>1</v>
-      </c>
-      <c r="G350" t="n">
-        <v>406.75</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>406</v>
-      </c>
-      <c r="C351" t="n">
-        <v>406</v>
-      </c>
-      <c r="D351" t="n">
-        <v>406</v>
-      </c>
-      <c r="E351" t="n">
-        <v>406</v>
-      </c>
-      <c r="F351" t="n">
-        <v>431.0344</v>
-      </c>
-      <c r="G351" t="n">
-        <v>406.7666666666667</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>404</v>
-      </c>
-      <c r="C352" t="n">
-        <v>406</v>
-      </c>
-      <c r="D352" t="n">
-        <v>406</v>
-      </c>
-      <c r="E352" t="n">
-        <v>404</v>
-      </c>
-      <c r="F352" t="n">
-        <v>2</v>
-      </c>
-      <c r="G352" t="n">
-        <v>406.7666666666667</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>405</v>
-      </c>
-      <c r="C353" t="n">
-        <v>405</v>
-      </c>
-      <c r="D353" t="n">
-        <v>405</v>
-      </c>
-      <c r="E353" t="n">
-        <v>405</v>
-      </c>
-      <c r="F353" t="n">
-        <v>838.9232</v>
-      </c>
-      <c r="G353" t="n">
-        <v>406.75</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>404</v>
-      </c>
-      <c r="C354" t="n">
-        <v>404</v>
-      </c>
-      <c r="D354" t="n">
-        <v>404</v>
-      </c>
-      <c r="E354" t="n">
-        <v>404</v>
-      </c>
-      <c r="F354" t="n">
-        <v>5646.0548</v>
-      </c>
-      <c r="G354" t="n">
-        <v>406.6833333333333</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>405</v>
-      </c>
-      <c r="C355" t="n">
-        <v>406</v>
-      </c>
-      <c r="D355" t="n">
-        <v>406</v>
-      </c>
-      <c r="E355" t="n">
-        <v>405</v>
-      </c>
-      <c r="F355" t="n">
-        <v>1828.9031</v>
-      </c>
-      <c r="G355" t="n">
-        <v>406.6666666666667</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>406</v>
-      </c>
-      <c r="C356" t="n">
-        <v>406</v>
-      </c>
-      <c r="D356" t="n">
-        <v>406</v>
-      </c>
-      <c r="E356" t="n">
-        <v>406</v>
-      </c>
-      <c r="F356" t="n">
-        <v>972</v>
-      </c>
-      <c r="G356" t="n">
-        <v>406.65</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>405</v>
-      </c>
-      <c r="C357" t="n">
-        <v>406</v>
-      </c>
-      <c r="D357" t="n">
-        <v>406</v>
-      </c>
-      <c r="E357" t="n">
-        <v>405</v>
-      </c>
-      <c r="F357" t="n">
-        <v>2003.3238</v>
-      </c>
-      <c r="G357" t="n">
-        <v>406.6333333333333</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>407</v>
-      </c>
-      <c r="C358" t="n">
-        <v>407</v>
-      </c>
-      <c r="D358" t="n">
-        <v>407</v>
-      </c>
-      <c r="E358" t="n">
-        <v>407</v>
-      </c>
-      <c r="F358" t="n">
-        <v>32</v>
-      </c>
-      <c r="G358" t="n">
-        <v>406.6333333333333</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>408</v>
-      </c>
-      <c r="C359" t="n">
-        <v>408</v>
-      </c>
-      <c r="D359" t="n">
-        <v>408</v>
-      </c>
-      <c r="E359" t="n">
-        <v>408</v>
-      </c>
-      <c r="F359" t="n">
-        <v>1220.0771</v>
-      </c>
-      <c r="G359" t="n">
-        <v>406.65</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>408</v>
-      </c>
-      <c r="C360" t="n">
-        <v>409</v>
-      </c>
-      <c r="D360" t="n">
-        <v>409</v>
-      </c>
-      <c r="E360" t="n">
-        <v>408</v>
-      </c>
-      <c r="F360" t="n">
-        <v>138.8386</v>
-      </c>
-      <c r="G360" t="n">
-        <v>406.6833333333333</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>409</v>
-      </c>
-      <c r="C361" t="n">
-        <v>409</v>
-      </c>
-      <c r="D361" t="n">
-        <v>409</v>
-      </c>
-      <c r="E361" t="n">
-        <v>409</v>
-      </c>
-      <c r="F361" t="n">
-        <v>159.1577</v>
-      </c>
-      <c r="G361" t="n">
-        <v>406.7333333333333</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>409</v>
-      </c>
-      <c r="C362" t="n">
-        <v>408</v>
-      </c>
-      <c r="D362" t="n">
-        <v>409</v>
-      </c>
-      <c r="E362" t="n">
-        <v>408</v>
-      </c>
-      <c r="F362" t="n">
-        <v>3899.5631</v>
-      </c>
-      <c r="G362" t="n">
-        <v>406.75</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>407</v>
-      </c>
-      <c r="C363" t="n">
-        <v>408</v>
-      </c>
-      <c r="D363" t="n">
-        <v>408</v>
-      </c>
-      <c r="E363" t="n">
-        <v>406</v>
-      </c>
-      <c r="F363" t="n">
-        <v>801</v>
-      </c>
-      <c r="G363" t="n">
-        <v>406.7833333333334</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>408</v>
-      </c>
-      <c r="C364" t="n">
-        <v>408</v>
-      </c>
-      <c r="D364" t="n">
-        <v>409</v>
-      </c>
-      <c r="E364" t="n">
-        <v>408</v>
-      </c>
-      <c r="F364" t="n">
-        <v>66</v>
-      </c>
-      <c r="G364" t="n">
-        <v>406.8</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>406</v>
-      </c>
-      <c r="C365" t="n">
-        <v>406</v>
-      </c>
-      <c r="D365" t="n">
-        <v>406</v>
-      </c>
-      <c r="E365" t="n">
-        <v>406</v>
-      </c>
-      <c r="F365" t="n">
-        <v>246</v>
-      </c>
-      <c r="G365" t="n">
-        <v>406.8</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>408</v>
-      </c>
-      <c r="C366" t="n">
-        <v>409</v>
-      </c>
-      <c r="D366" t="n">
-        <v>409</v>
-      </c>
-      <c r="E366" t="n">
-        <v>408</v>
-      </c>
-      <c r="F366" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="G366" t="n">
-        <v>406.8333333333333</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>408</v>
-      </c>
-      <c r="C367" t="n">
-        <v>408</v>
-      </c>
-      <c r="D367" t="n">
-        <v>408</v>
-      </c>
-      <c r="E367" t="n">
-        <v>408</v>
-      </c>
-      <c r="F367" t="n">
-        <v>2</v>
-      </c>
-      <c r="G367" t="n">
-        <v>406.8333333333333</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>409</v>
-      </c>
-      <c r="C368" t="n">
-        <v>409</v>
-      </c>
-      <c r="D368" t="n">
-        <v>409</v>
-      </c>
-      <c r="E368" t="n">
-        <v>409</v>
-      </c>
-      <c r="F368" t="n">
-        <v>77.5843</v>
-      </c>
-      <c r="G368" t="n">
-        <v>406.8666666666667</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>409</v>
-      </c>
-      <c r="C369" t="n">
-        <v>409</v>
-      </c>
-      <c r="D369" t="n">
-        <v>409</v>
-      </c>
-      <c r="E369" t="n">
-        <v>409</v>
-      </c>
-      <c r="F369" t="n">
-        <v>27.0317</v>
-      </c>
-      <c r="G369" t="n">
-        <v>406.9</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>408</v>
-      </c>
-      <c r="C370" t="n">
-        <v>408</v>
-      </c>
-      <c r="D370" t="n">
-        <v>408</v>
-      </c>
-      <c r="E370" t="n">
-        <v>408</v>
-      </c>
-      <c r="F370" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="G370" t="n">
-        <v>406.9</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>408</v>
-      </c>
-      <c r="C371" t="n">
-        <v>409</v>
-      </c>
-      <c r="D371" t="n">
-        <v>409</v>
-      </c>
-      <c r="E371" t="n">
-        <v>408</v>
-      </c>
-      <c r="F371" t="n">
-        <v>4688.38</v>
-      </c>
-      <c r="G371" t="n">
-        <v>406.9333333333333</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="n">
-        <v>0</v>
-      </c>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
-      <c r="M371" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>409</v>
-      </c>
-      <c r="C372" t="n">
-        <v>410</v>
-      </c>
-      <c r="D372" t="n">
-        <v>410</v>
-      </c>
-      <c r="E372" t="n">
-        <v>409</v>
-      </c>
-      <c r="F372" t="n">
-        <v>2680</v>
-      </c>
-      <c r="G372" t="n">
-        <v>406.9666666666666</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="n">
-        <v>0</v>
-      </c>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
-      <c r="M372" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>410</v>
-      </c>
-      <c r="C373" t="n">
-        <v>411</v>
-      </c>
-      <c r="D373" t="n">
-        <v>411</v>
-      </c>
-      <c r="E373" t="n">
-        <v>410</v>
-      </c>
-      <c r="F373" t="n">
-        <v>6256.1245</v>
-      </c>
-      <c r="G373" t="n">
-        <v>407.0166666666667</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="n">
-        <v>0</v>
-      </c>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>411</v>
-      </c>
-      <c r="C374" t="n">
-        <v>412</v>
-      </c>
-      <c r="D374" t="n">
-        <v>412</v>
-      </c>
-      <c r="E374" t="n">
-        <v>411</v>
-      </c>
-      <c r="F374" t="n">
-        <v>16897.4266</v>
-      </c>
-      <c r="G374" t="n">
-        <v>407.0833333333333</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="n">
-        <v>0</v>
-      </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
-      <c r="M374" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>413</v>
-      </c>
-      <c r="C375" t="n">
-        <v>413</v>
-      </c>
-      <c r="D375" t="n">
-        <v>413</v>
-      </c>
-      <c r="E375" t="n">
-        <v>412</v>
-      </c>
-      <c r="F375" t="n">
-        <v>2813.7409</v>
-      </c>
-      <c r="G375" t="n">
-        <v>407.1666666666667</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="n">
-        <v>0</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
-      <c r="M375" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>413</v>
-      </c>
-      <c r="C376" t="n">
-        <v>413</v>
-      </c>
-      <c r="D376" t="n">
-        <v>414</v>
-      </c>
-      <c r="E376" t="n">
-        <v>413</v>
-      </c>
-      <c r="F376" t="n">
-        <v>6470.8913</v>
-      </c>
-      <c r="G376" t="n">
-        <v>407.25</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="n">
-        <v>0</v>
-      </c>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
-      <c r="M376" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>413</v>
-      </c>
-      <c r="C377" t="n">
-        <v>413</v>
-      </c>
-      <c r="D377" t="n">
-        <v>413</v>
-      </c>
-      <c r="E377" t="n">
-        <v>413</v>
-      </c>
-      <c r="F377" t="n">
-        <v>1786.4019</v>
-      </c>
-      <c r="G377" t="n">
-        <v>407.35</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="n">
-        <v>0</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
-        <v>1</v>
+        <v>1.030087719298246</v>
       </c>
     </row>
     <row r="378">
@@ -14293,7 +14511,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
@@ -14328,7 +14546,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
@@ -14398,7 +14616,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
@@ -15098,7 +15316,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
@@ -15203,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
@@ -15238,7 +15456,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>

--- a/BackTest/2019-10-15 BackTest MTL.xlsx
+++ b/BackTest/2019-10-15 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1342,7 +1342,7 @@
         <v>33628.40007244999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>18879.07977244998</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -7876,10 +7876,14 @@
         <v>-86833.51580405</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>407</v>
+      </c>
+      <c r="J227" t="n">
+        <v>407</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
@@ -7909,11 +7913,19 @@
         <v>-81769.17700405</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>407</v>
+      </c>
+      <c r="J228" t="n">
+        <v>407</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +7954,19 @@
         <v>-81769.17700405</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>408</v>
+      </c>
+      <c r="J229" t="n">
+        <v>407</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8008,10 +8028,14 @@
         <v>-81093.49780405</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>407</v>
+      </c>
+      <c r="J231" t="n">
+        <v>407</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
@@ -8041,15 +8065,19 @@
         <v>-81850.89680405</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>408</v>
       </c>
       <c r="J232" t="n">
-        <v>408</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
+        <v>407</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,13 +8106,13 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>407</v>
       </c>
       <c r="J233" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8119,7 +8147,7 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>408</v>
@@ -8127,11 +8155,7 @@
       <c r="J234" t="n">
         <v>408</v>
       </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8160,11 +8184,19 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>408</v>
+      </c>
+      <c r="J235" t="n">
+        <v>408</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8225,7 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>408</v>
@@ -8201,7 +8233,11 @@
       <c r="J236" t="n">
         <v>408</v>
       </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8230,7 +8266,7 @@
         <v>-82898.75440405001</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>408</v>
@@ -8240,7 +8276,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L237" t="n">
@@ -8271,7 +8307,7 @@
         <v>-81556.75450405001</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>406</v>
@@ -8312,7 +8348,7 @@
         <v>-78819.37620405002</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>409</v>
@@ -8353,7 +8389,7 @@
         <v>-78857.02940405002</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>410</v>
@@ -8394,7 +8430,7 @@
         <v>-76285.08950405002</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>408</v>
@@ -8435,7 +8471,7 @@
         <v>-77218.51830405001</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>409</v>
@@ -8476,7 +8512,7 @@
         <v>-77218.51830405001</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>408</v>
@@ -8517,7 +8553,7 @@
         <v>-83603.14850405001</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>408</v>
@@ -8558,7 +8594,7 @@
         <v>-83603.14850405001</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>407</v>
@@ -8599,7 +8635,7 @@
         <v>-86178.65400405001</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>407</v>
@@ -8640,7 +8676,7 @@
         <v>-86178.65400405001</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>406</v>
@@ -8681,7 +8717,7 @@
         <v>-86178.65400405001</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>406</v>
@@ -8722,7 +8758,7 @@
         <v>-90195.45400405001</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>406</v>
@@ -8763,7 +8799,7 @@
         <v>-19698.59140405002</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>405</v>
@@ -8804,11 +8840,9 @@
         <v>-26531.08710405002</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
         <v>408</v>
       </c>
@@ -8884,11 +8918,9 @@
         <v>-26530.08710405002</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
         <v>408</v>
       </c>
@@ -9081,7 +9113,7 @@
         <v>-14866.05960405002</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>405</v>
@@ -9122,9 +9154,11 @@
         <v>-11541.39770405002</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>405</v>
+      </c>
       <c r="J259" t="n">
         <v>408</v>
       </c>
@@ -10526,7 +10560,7 @@
         <v>-50476.49830405002</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>399</v>
@@ -10567,9 +10601,11 @@
         <v>-50476.49830405002</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>399</v>
+      </c>
       <c r="J296" t="n">
         <v>408</v>
       </c>
@@ -10606,7 +10642,7 @@
         <v>-49430.57630405002</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>399</v>
@@ -10647,7 +10683,7 @@
         <v>-49430.57630405002</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>400</v>
@@ -10688,11 +10724,9 @@
         <v>-51743.53120405002</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
         <v>408</v>
       </c>
@@ -10729,11 +10763,9 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
         <v>408</v>
       </c>
@@ -10770,11 +10802,9 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
         <v>408</v>
       </c>
@@ -10811,11 +10841,9 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
         <v>408</v>
       </c>
@@ -10852,11 +10880,9 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
         <v>408</v>
       </c>
@@ -10893,7 +10919,7 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>400</v>
@@ -10934,7 +10960,7 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>400</v>
@@ -10975,7 +11001,7 @@
         <v>-52646.38160405002</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>400</v>
@@ -11016,7 +11042,7 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>399</v>
@@ -11057,7 +11083,7 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>400</v>
@@ -11098,7 +11124,7 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>400</v>
@@ -11139,7 +11165,7 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>400</v>
@@ -11180,7 +11206,7 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>400</v>
@@ -11221,7 +11247,7 @@
         <v>-52637.38160405002</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>400</v>
@@ -11262,7 +11288,7 @@
         <v>-54573.91590405002</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>401</v>
@@ -11303,7 +11329,7 @@
         <v>-54573.91590405002</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>399</v>
@@ -11344,9 +11370,11 @@
         <v>-54573.91590405002</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>399</v>
+      </c>
       <c r="J315" t="n">
         <v>408</v>
       </c>
@@ -11383,7 +11411,7 @@
         <v>-54562.90550405002</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>399</v>
@@ -11424,7 +11452,7 @@
         <v>-54562.90550405002</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>401</v>
@@ -11465,7 +11493,7 @@
         <v>-58595.20230405002</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>401</v>
@@ -11506,7 +11534,7 @@
         <v>-42094.61530405002</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>400</v>
@@ -11547,11 +11575,9 @@
         <v>-59432.60780405002</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
         <v>408</v>
       </c>
@@ -11627,11 +11653,9 @@
         <v>-54495.22710405002</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
         <v>408</v>
       </c>
@@ -11707,11 +11731,9 @@
         <v>-55416.22690405002</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
         <v>408</v>
       </c>
@@ -11787,7 +11809,7 @@
         <v>-48990.87000405002</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>402</v>
@@ -12296,11 +12318,9 @@
         <v>-46703.67130405002</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
         <v>408</v>
       </c>
@@ -12337,11 +12357,9 @@
         <v>-46703.67130405002</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
         <v>408</v>
       </c>
@@ -12378,7 +12396,7 @@
         <v>-49948.54680405002</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>404</v>
@@ -12419,11 +12437,9 @@
         <v>-49948.54680405002</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="n">
-        <v>402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
         <v>408</v>
       </c>
@@ -12460,7 +12476,7 @@
         <v>-46509.54680405002</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>402</v>
@@ -12501,11 +12517,9 @@
         <v>-46509.54680405002</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
         <v>408</v>
       </c>
@@ -12542,11 +12556,9 @@
         <v>-46787.54680405002</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
         <v>408</v>
       </c>
@@ -12583,11 +12595,9 @@
         <v>-46787.54680405002</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
         <v>408</v>
       </c>
@@ -12624,11 +12634,9 @@
         <v>-44687.54680405002</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
         <v>408</v>
       </c>
@@ -12665,11 +12673,9 @@
         <v>-44687.54680405002</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
         <v>408</v>
       </c>
@@ -12745,11 +12751,9 @@
         <v>-49432.52960405002</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
         <v>408</v>
       </c>
@@ -12786,11 +12790,9 @@
         <v>-49418.98290405002</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
         <v>408</v>
       </c>
@@ -12827,11 +12829,9 @@
         <v>-49418.98290405002</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
         <v>408</v>
       </c>
@@ -12868,11 +12868,9 @@
         <v>-44743.77750405002</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
         <v>408</v>
       </c>
@@ -12909,11 +12907,9 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
         <v>408</v>
       </c>
@@ -12950,11 +12946,9 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
         <v>408</v>
       </c>
@@ -13069,11 +13063,9 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
         <v>408</v>
       </c>
@@ -13110,11 +13102,9 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
         <v>408</v>
       </c>
@@ -13151,11 +13141,9 @@
         <v>-63314.65370405002</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
         <v>408</v>
       </c>
@@ -13192,11 +13180,9 @@
         <v>-53897.45240405002</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
         <v>408</v>
       </c>
@@ -13233,11 +13219,9 @@
         <v>-54231.07310405002</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
         <v>408</v>
       </c>
@@ -13274,11 +13258,9 @@
         <v>-51779.68030405002</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
         <v>408</v>
       </c>
@@ -13315,11 +13297,9 @@
         <v>-59172.73510405001</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
         <v>408</v>
       </c>
@@ -13356,11 +13336,9 @@
         <v>-57743.75750405002</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
         <v>408</v>
       </c>
@@ -13904,11 +13882,9 @@
         <v>-66808.42990405002</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
         <v>408</v>
       </c>
@@ -13984,11 +13960,9 @@
         <v>-66808.42990405002</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
         <v>408</v>
       </c>
@@ -14181,11 +14155,9 @@
         <v>-30385.62730405002</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
         <v>408</v>
       </c>
@@ -14456,11 +14428,9 @@
         <v>-22133.43230405002</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
         <v>408</v>
       </c>
@@ -16213,7 +16183,7 @@
         <v>-4305.280986570026</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
@@ -16221,11 +16191,11 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L438" t="n">
-        <v>1.002352941176471</v>
+        <v>1</v>
       </c>
       <c r="M438" t="inlineStr"/>
     </row>
@@ -16255,8 +16225,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>408</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16288,8 +16264,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>408</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16321,8 +16303,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>408</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16354,8 +16342,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>408</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16387,8 +16381,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>408</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16420,8 +16420,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>408</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16453,8 +16459,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>408</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16486,8 +16498,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>408</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16519,8 +16537,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>408</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16552,8 +16576,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>408</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16585,8 +16615,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>408</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16618,8 +16654,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>408</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16651,8 +16693,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>408</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16684,8 +16732,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>408</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16717,8 +16771,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>408</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16750,8 +16810,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>408</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16783,8 +16849,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>408</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16816,8 +16888,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>408</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16849,8 +16927,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>408</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16882,8 +16966,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>408</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16915,8 +17005,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>408</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16945,11 +17041,17 @@
         <v>41846.81978635998</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>408</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16978,11 +17080,17 @@
         <v>41846.81978635998</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>408</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17011,11 +17119,17 @@
         <v>39844.26948635998</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>408</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17047,8 +17161,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>408</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17077,11 +17197,17 @@
         <v>27532.45908635998</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>408</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17113,8 +17239,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>408</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17146,8 +17278,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>408</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17176,11 +17314,17 @@
         <v>28658.84158635998</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>408</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17212,8 +17356,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>408</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17245,8 +17395,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>408</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17278,8 +17434,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>408</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17311,8 +17473,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>408</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17344,8 +17512,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>408</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17377,8 +17551,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>408</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17410,8 +17590,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>408</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17443,8 +17629,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>408</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17476,8 +17668,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>408</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17509,8 +17707,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>408</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17542,8 +17746,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>408</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17575,8 +17785,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>408</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17608,8 +17824,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>408</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17641,8 +17863,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>408</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17671,13 +17899,19 @@
         <v>52528.06386712998</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>408</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L482" t="n">
-        <v>1</v>
+        <v>1.019509803921569</v>
       </c>
       <c r="M482" t="inlineStr"/>
     </row>
@@ -17704,7 +17938,7 @@
         <v>52528.06386712998</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17737,7 +17971,7 @@
         <v>43965.60536712998</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17770,7 +18004,7 @@
         <v>53994.14886712998</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17803,7 +18037,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17836,7 +18070,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17935,7 +18169,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17968,7 +18202,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18034,7 +18268,7 @@
         <v>50199.20946712998</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18067,7 +18301,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18100,7 +18334,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18166,7 +18400,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18199,7 +18433,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18232,7 +18466,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18265,7 +18499,7 @@
         <v>52703.71726712998</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18298,7 +18532,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18331,7 +18565,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18364,7 +18598,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18397,7 +18631,7 @@
         <v>56554.27136712998</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18430,7 +18664,7 @@
         <v>56554.27136712998</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18463,7 +18697,7 @@
         <v>57052.27076712998</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18496,7 +18730,7 @@
         <v>51829.27086712998</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18529,7 +18763,7 @@
         <v>51830.27086712998</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18562,7 +18796,7 @@
         <v>54729.06996712998</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18595,7 +18829,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18628,7 +18862,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18661,7 +18895,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18694,7 +18928,7 @@
         <v>61108.06996712998</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18859,7 +19093,7 @@
         <v>60526.28496712998</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18870,6 +19104,6 @@
       <c r="M518" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest MTL.xlsx
+++ b/BackTest/2019-10-15 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1243,7 +1243,7 @@
         <v>30635.90007244999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>33628.40007244999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>19020.12957244998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>19020.12957244998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>19020.12957244998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>18879.07977244998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>18639.07977244998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-48460.60860405001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-45932.88040405001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-50214.75280405001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-50210.75280405001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6589,10 +6589,14 @@
         <v>-73927.16790405</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>404</v>
+      </c>
+      <c r="J188" t="n">
+        <v>404</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
@@ -6622,11 +6626,19 @@
         <v>-73627.16790405</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>405</v>
+      </c>
+      <c r="J189" t="n">
+        <v>404</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +6670,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>404</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7876,14 +7894,10 @@
         <v>-86833.51580405</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>407</v>
-      </c>
-      <c r="J227" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
@@ -7913,19 +7927,11 @@
         <v>-81769.17700405</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>407</v>
-      </c>
-      <c r="J228" t="n">
-        <v>407</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7954,19 +7960,11 @@
         <v>-81769.17700405</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>408</v>
-      </c>
-      <c r="J229" t="n">
-        <v>407</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8028,14 +8026,10 @@
         <v>-81093.49780405</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>407</v>
-      </c>
-      <c r="J231" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
@@ -8065,1108 +8059,950 @@
         <v>-81850.89680405</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>408</v>
-      </c>
-      <c r="J232" t="n">
-        <v>407</v>
-      </c>
-      <c r="K232" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>408</v>
+      </c>
+      <c r="C233" t="n">
+        <v>408</v>
+      </c>
+      <c r="D233" t="n">
+        <v>408</v>
+      </c>
+      <c r="E233" t="n">
+        <v>408</v>
+      </c>
+      <c r="F233" t="n">
+        <v>895.3911000000001</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-80955.50570405001</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>408</v>
+      </c>
+      <c r="C234" t="n">
+        <v>408</v>
+      </c>
+      <c r="D234" t="n">
+        <v>408</v>
+      </c>
+      <c r="E234" t="n">
+        <v>408</v>
+      </c>
+      <c r="F234" t="n">
+        <v>85.2401</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-80955.50570405001</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>409</v>
+      </c>
+      <c r="C235" t="n">
+        <v>408</v>
+      </c>
+      <c r="D235" t="n">
+        <v>409</v>
+      </c>
+      <c r="E235" t="n">
+        <v>407</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2292.7773</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-80955.50570405001</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>408</v>
+      </c>
+      <c r="C236" t="n">
+        <v>408</v>
+      </c>
+      <c r="D236" t="n">
+        <v>408</v>
+      </c>
+      <c r="E236" t="n">
+        <v>408</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1247.3854</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-80955.50570405001</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>408</v>
+      </c>
+      <c r="C237" t="n">
+        <v>406</v>
+      </c>
+      <c r="D237" t="n">
+        <v>408</v>
+      </c>
+      <c r="E237" t="n">
+        <v>406</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1943.2487</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-82898.75440405001</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>408</v>
+      </c>
+      <c r="C238" t="n">
+        <v>409</v>
+      </c>
+      <c r="D238" t="n">
+        <v>409</v>
+      </c>
+      <c r="E238" t="n">
+        <v>408</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1341.9999</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-81556.75450405001</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>407</v>
+      </c>
+      <c r="C239" t="n">
+        <v>410</v>
+      </c>
+      <c r="D239" t="n">
+        <v>410</v>
+      </c>
+      <c r="E239" t="n">
+        <v>407</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2737.3783</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-78819.37620405002</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>408</v>
+      </c>
+      <c r="C240" t="n">
+        <v>408</v>
+      </c>
+      <c r="D240" t="n">
+        <v>408</v>
+      </c>
+      <c r="E240" t="n">
+        <v>408</v>
+      </c>
+      <c r="F240" t="n">
+        <v>37.6532</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-78857.02940405002</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>409</v>
+      </c>
+      <c r="C241" t="n">
+        <v>409</v>
+      </c>
+      <c r="D241" t="n">
+        <v>409</v>
+      </c>
+      <c r="E241" t="n">
+        <v>409</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2571.9399</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-76285.08950405002</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>408</v>
+      </c>
+      <c r="C242" t="n">
+        <v>408</v>
+      </c>
+      <c r="D242" t="n">
+        <v>408</v>
+      </c>
+      <c r="E242" t="n">
+        <v>408</v>
+      </c>
+      <c r="F242" t="n">
+        <v>933.4288</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-77218.51830405001</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>408</v>
+      </c>
+      <c r="C243" t="n">
+        <v>408</v>
+      </c>
+      <c r="D243" t="n">
+        <v>408</v>
+      </c>
+      <c r="E243" t="n">
+        <v>408</v>
+      </c>
+      <c r="F243" t="n">
+        <v>350.2975</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-77218.51830405001</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>407</v>
+      </c>
+      <c r="C244" t="n">
+        <v>407</v>
+      </c>
+      <c r="D244" t="n">
+        <v>407</v>
+      </c>
+      <c r="E244" t="n">
+        <v>407</v>
+      </c>
+      <c r="F244" t="n">
+        <v>6384.6302</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-83603.14850405001</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>406</v>
+      </c>
+      <c r="C245" t="n">
+        <v>407</v>
+      </c>
+      <c r="D245" t="n">
+        <v>407</v>
+      </c>
+      <c r="E245" t="n">
+        <v>406</v>
+      </c>
+      <c r="F245" t="n">
+        <v>3103.1488</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-83603.14850405001</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>406</v>
+      </c>
+      <c r="C246" t="n">
+        <v>406</v>
+      </c>
+      <c r="D246" t="n">
+        <v>406</v>
+      </c>
+      <c r="E246" t="n">
+        <v>406</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2575.5055</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-86178.65400405001</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>406</v>
+      </c>
+      <c r="C247" t="n">
+        <v>406</v>
+      </c>
+      <c r="D247" t="n">
+        <v>406</v>
+      </c>
+      <c r="E247" t="n">
+        <v>405</v>
+      </c>
+      <c r="F247" t="n">
+        <v>8727.875700000001</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-86178.65400405001</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>406</v>
+      </c>
+      <c r="C248" t="n">
+        <v>406</v>
+      </c>
+      <c r="D248" t="n">
+        <v>406</v>
+      </c>
+      <c r="E248" t="n">
+        <v>406</v>
+      </c>
+      <c r="F248" t="n">
+        <v>5066.2973</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-86178.65400405001</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>406</v>
+      </c>
+      <c r="C249" t="n">
+        <v>405</v>
+      </c>
+      <c r="D249" t="n">
+        <v>406</v>
+      </c>
+      <c r="E249" t="n">
+        <v>405</v>
+      </c>
+      <c r="F249" t="n">
+        <v>4016.8</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-90195.45400405001</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>405</v>
+      </c>
+      <c r="C250" t="n">
+        <v>406</v>
+      </c>
+      <c r="D250" t="n">
+        <v>406</v>
+      </c>
+      <c r="E250" t="n">
+        <v>403</v>
+      </c>
+      <c r="F250" t="n">
+        <v>70496.86259999999</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-19698.59140405002</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>404</v>
+      </c>
+      <c r="C251" t="n">
+        <v>404</v>
+      </c>
+      <c r="D251" t="n">
+        <v>404</v>
+      </c>
+      <c r="E251" t="n">
+        <v>404</v>
+      </c>
+      <c r="F251" t="n">
+        <v>6832.4957</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-26531.08710405002</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>404</v>
+      </c>
+      <c r="C252" t="n">
+        <v>404</v>
+      </c>
+      <c r="D252" t="n">
+        <v>404</v>
+      </c>
+      <c r="E252" t="n">
+        <v>404</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1034.1774</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-26531.08710405002</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>405</v>
+      </c>
+      <c r="C253" t="n">
+        <v>405</v>
+      </c>
+      <c r="D253" t="n">
+        <v>405</v>
+      </c>
+      <c r="E253" t="n">
+        <v>405</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-26530.08710405002</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>404</v>
+      </c>
+      <c r="J253" t="n">
+        <v>404</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>405</v>
+      </c>
+      <c r="C254" t="n">
+        <v>406</v>
+      </c>
+      <c r="D254" t="n">
+        <v>406</v>
+      </c>
+      <c r="E254" t="n">
+        <v>405</v>
+      </c>
+      <c r="F254" t="n">
+        <v>12164.0275</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-14366.05960405002</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>405</v>
+      </c>
+      <c r="J254" t="n">
+        <v>404</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>408</v>
-      </c>
-      <c r="C233" t="n">
-        <v>408</v>
-      </c>
-      <c r="D233" t="n">
-        <v>408</v>
-      </c>
-      <c r="E233" t="n">
-        <v>408</v>
-      </c>
-      <c r="F233" t="n">
-        <v>895.3911000000001</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-80955.50570405001</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>407</v>
-      </c>
-      <c r="J233" t="n">
-        <v>407</v>
-      </c>
-      <c r="K233" t="inlineStr">
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>406</v>
+      </c>
+      <c r="C255" t="n">
+        <v>406</v>
+      </c>
+      <c r="D255" t="n">
+        <v>406</v>
+      </c>
+      <c r="E255" t="n">
+        <v>406</v>
+      </c>
+      <c r="F255" t="n">
+        <v>100.6178</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-14366.05960405002</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>406</v>
+      </c>
+      <c r="J255" t="n">
+        <v>404</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>408</v>
-      </c>
-      <c r="C234" t="n">
-        <v>408</v>
-      </c>
-      <c r="D234" t="n">
-        <v>408</v>
-      </c>
-      <c r="E234" t="n">
-        <v>408</v>
-      </c>
-      <c r="F234" t="n">
-        <v>85.2401</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-80955.50570405001</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>408</v>
-      </c>
-      <c r="J234" t="n">
-        <v>408</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>409</v>
-      </c>
-      <c r="C235" t="n">
-        <v>408</v>
-      </c>
-      <c r="D235" t="n">
-        <v>409</v>
-      </c>
-      <c r="E235" t="n">
-        <v>407</v>
-      </c>
-      <c r="F235" t="n">
-        <v>2292.7773</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-80955.50570405001</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>408</v>
-      </c>
-      <c r="J235" t="n">
-        <v>408</v>
-      </c>
-      <c r="K235" t="inlineStr">
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>405</v>
+      </c>
+      <c r="C256" t="n">
+        <v>405</v>
+      </c>
+      <c r="D256" t="n">
+        <v>405</v>
+      </c>
+      <c r="E256" t="n">
+        <v>405</v>
+      </c>
+      <c r="F256" t="n">
+        <v>500</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-14866.05960405002</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>406</v>
+      </c>
+      <c r="J256" t="n">
+        <v>406</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>405</v>
+      </c>
+      <c r="C257" t="n">
+        <v>405</v>
+      </c>
+      <c r="D257" t="n">
+        <v>405</v>
+      </c>
+      <c r="E257" t="n">
+        <v>405</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1621.3953</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-14866.05960405002</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>405</v>
+      </c>
+      <c r="J257" t="n">
+        <v>406</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>405</v>
+      </c>
+      <c r="C258" t="n">
+        <v>405</v>
+      </c>
+      <c r="D258" t="n">
+        <v>405</v>
+      </c>
+      <c r="E258" t="n">
+        <v>405</v>
+      </c>
+      <c r="F258" t="n">
+        <v>909.2791</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-14866.05960405002</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>405</v>
+      </c>
+      <c r="J258" t="n">
+        <v>406</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>405</v>
+      </c>
+      <c r="C259" t="n">
+        <v>406</v>
+      </c>
+      <c r="D259" t="n">
+        <v>406</v>
+      </c>
+      <c r="E259" t="n">
+        <v>405</v>
+      </c>
+      <c r="F259" t="n">
+        <v>3324.6619</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-11541.39770405002</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>405</v>
+      </c>
+      <c r="J259" t="n">
+        <v>406</v>
+      </c>
+      <c r="K259" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>408</v>
-      </c>
-      <c r="C236" t="n">
-        <v>408</v>
-      </c>
-      <c r="D236" t="n">
-        <v>408</v>
-      </c>
-      <c r="E236" t="n">
-        <v>408</v>
-      </c>
-      <c r="F236" t="n">
-        <v>1247.3854</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-80955.50570405001</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>408</v>
-      </c>
-      <c r="J236" t="n">
-        <v>408</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>408</v>
-      </c>
-      <c r="C237" t="n">
-        <v>406</v>
-      </c>
-      <c r="D237" t="n">
-        <v>408</v>
-      </c>
-      <c r="E237" t="n">
-        <v>406</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1943.2487</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-82898.75440405001</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>408</v>
-      </c>
-      <c r="J237" t="n">
-        <v>408</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>408</v>
-      </c>
-      <c r="C238" t="n">
-        <v>409</v>
-      </c>
-      <c r="D238" t="n">
-        <v>409</v>
-      </c>
-      <c r="E238" t="n">
-        <v>408</v>
-      </c>
-      <c r="F238" t="n">
-        <v>1341.9999</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-81556.75450405001</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>406</v>
-      </c>
-      <c r="J238" t="n">
-        <v>408</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>407</v>
-      </c>
-      <c r="C239" t="n">
-        <v>410</v>
-      </c>
-      <c r="D239" t="n">
-        <v>410</v>
-      </c>
-      <c r="E239" t="n">
-        <v>407</v>
-      </c>
-      <c r="F239" t="n">
-        <v>2737.3783</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-78819.37620405002</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>409</v>
-      </c>
-      <c r="J239" t="n">
-        <v>408</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>408</v>
-      </c>
-      <c r="C240" t="n">
-        <v>408</v>
-      </c>
-      <c r="D240" t="n">
-        <v>408</v>
-      </c>
-      <c r="E240" t="n">
-        <v>408</v>
-      </c>
-      <c r="F240" t="n">
-        <v>37.6532</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-78857.02940405002</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>410</v>
-      </c>
-      <c r="J240" t="n">
-        <v>408</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>409</v>
-      </c>
-      <c r="C241" t="n">
-        <v>409</v>
-      </c>
-      <c r="D241" t="n">
-        <v>409</v>
-      </c>
-      <c r="E241" t="n">
-        <v>409</v>
-      </c>
-      <c r="F241" t="n">
-        <v>2571.9399</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-76285.08950405002</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>408</v>
-      </c>
-      <c r="J241" t="n">
-        <v>408</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>408</v>
-      </c>
-      <c r="C242" t="n">
-        <v>408</v>
-      </c>
-      <c r="D242" t="n">
-        <v>408</v>
-      </c>
-      <c r="E242" t="n">
-        <v>408</v>
-      </c>
-      <c r="F242" t="n">
-        <v>933.4288</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-77218.51830405001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>409</v>
-      </c>
-      <c r="J242" t="n">
-        <v>408</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>408</v>
-      </c>
-      <c r="C243" t="n">
-        <v>408</v>
-      </c>
-      <c r="D243" t="n">
-        <v>408</v>
-      </c>
-      <c r="E243" t="n">
-        <v>408</v>
-      </c>
-      <c r="F243" t="n">
-        <v>350.2975</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-77218.51830405001</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>408</v>
-      </c>
-      <c r="J243" t="n">
-        <v>408</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>407</v>
-      </c>
-      <c r="C244" t="n">
-        <v>407</v>
-      </c>
-      <c r="D244" t="n">
-        <v>407</v>
-      </c>
-      <c r="E244" t="n">
-        <v>407</v>
-      </c>
-      <c r="F244" t="n">
-        <v>6384.6302</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-83603.14850405001</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>408</v>
-      </c>
-      <c r="J244" t="n">
-        <v>408</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>406</v>
-      </c>
-      <c r="C245" t="n">
-        <v>407</v>
-      </c>
-      <c r="D245" t="n">
-        <v>407</v>
-      </c>
-      <c r="E245" t="n">
-        <v>406</v>
-      </c>
-      <c r="F245" t="n">
-        <v>3103.1488</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-83603.14850405001</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>407</v>
-      </c>
-      <c r="J245" t="n">
-        <v>408</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>406</v>
-      </c>
-      <c r="C246" t="n">
-        <v>406</v>
-      </c>
-      <c r="D246" t="n">
-        <v>406</v>
-      </c>
-      <c r="E246" t="n">
-        <v>406</v>
-      </c>
-      <c r="F246" t="n">
-        <v>2575.5055</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-86178.65400405001</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>407</v>
-      </c>
-      <c r="J246" t="n">
-        <v>408</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>406</v>
-      </c>
-      <c r="C247" t="n">
-        <v>406</v>
-      </c>
-      <c r="D247" t="n">
-        <v>406</v>
-      </c>
-      <c r="E247" t="n">
-        <v>405</v>
-      </c>
-      <c r="F247" t="n">
-        <v>8727.875700000001</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-86178.65400405001</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>406</v>
-      </c>
-      <c r="J247" t="n">
-        <v>408</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>406</v>
-      </c>
-      <c r="C248" t="n">
-        <v>406</v>
-      </c>
-      <c r="D248" t="n">
-        <v>406</v>
-      </c>
-      <c r="E248" t="n">
-        <v>406</v>
-      </c>
-      <c r="F248" t="n">
-        <v>5066.2973</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-86178.65400405001</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>406</v>
-      </c>
-      <c r="J248" t="n">
-        <v>408</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>406</v>
-      </c>
-      <c r="C249" t="n">
-        <v>405</v>
-      </c>
-      <c r="D249" t="n">
-        <v>406</v>
-      </c>
-      <c r="E249" t="n">
-        <v>405</v>
-      </c>
-      <c r="F249" t="n">
-        <v>4016.8</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-90195.45400405001</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>406</v>
-      </c>
-      <c r="J249" t="n">
-        <v>408</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>405</v>
-      </c>
-      <c r="C250" t="n">
-        <v>406</v>
-      </c>
-      <c r="D250" t="n">
-        <v>406</v>
-      </c>
-      <c r="E250" t="n">
-        <v>403</v>
-      </c>
-      <c r="F250" t="n">
-        <v>70496.86259999999</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-19698.59140405002</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>405</v>
-      </c>
-      <c r="J250" t="n">
-        <v>408</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>404</v>
-      </c>
-      <c r="C251" t="n">
-        <v>404</v>
-      </c>
-      <c r="D251" t="n">
-        <v>404</v>
-      </c>
-      <c r="E251" t="n">
-        <v>404</v>
-      </c>
-      <c r="F251" t="n">
-        <v>6832.4957</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-26531.08710405002</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>408</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>404</v>
-      </c>
-      <c r="C252" t="n">
-        <v>404</v>
-      </c>
-      <c r="D252" t="n">
-        <v>404</v>
-      </c>
-      <c r="E252" t="n">
-        <v>404</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1034.1774</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-26531.08710405002</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>408</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>405</v>
-      </c>
-      <c r="C253" t="n">
-        <v>405</v>
-      </c>
-      <c r="D253" t="n">
-        <v>405</v>
-      </c>
-      <c r="E253" t="n">
-        <v>405</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-26530.08710405002</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>408</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>405</v>
-      </c>
-      <c r="C254" t="n">
-        <v>406</v>
-      </c>
-      <c r="D254" t="n">
-        <v>406</v>
-      </c>
-      <c r="E254" t="n">
-        <v>405</v>
-      </c>
-      <c r="F254" t="n">
-        <v>12164.0275</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-14366.05960405002</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>408</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>406</v>
-      </c>
-      <c r="C255" t="n">
-        <v>406</v>
-      </c>
-      <c r="D255" t="n">
-        <v>406</v>
-      </c>
-      <c r="E255" t="n">
-        <v>406</v>
-      </c>
-      <c r="F255" t="n">
-        <v>100.6178</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-14366.05960405002</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>408</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>405</v>
-      </c>
-      <c r="C256" t="n">
-        <v>405</v>
-      </c>
-      <c r="D256" t="n">
-        <v>405</v>
-      </c>
-      <c r="E256" t="n">
-        <v>405</v>
-      </c>
-      <c r="F256" t="n">
-        <v>500</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-14866.05960405002</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>408</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>405</v>
-      </c>
-      <c r="C257" t="n">
-        <v>405</v>
-      </c>
-      <c r="D257" t="n">
-        <v>405</v>
-      </c>
-      <c r="E257" t="n">
-        <v>405</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1621.3953</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-14866.05960405002</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>408</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>405</v>
-      </c>
-      <c r="C258" t="n">
-        <v>405</v>
-      </c>
-      <c r="D258" t="n">
-        <v>405</v>
-      </c>
-      <c r="E258" t="n">
-        <v>405</v>
-      </c>
-      <c r="F258" t="n">
-        <v>909.2791</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-14866.05960405002</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>405</v>
-      </c>
-      <c r="J258" t="n">
-        <v>408</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>405</v>
-      </c>
-      <c r="C259" t="n">
-        <v>406</v>
-      </c>
-      <c r="D259" t="n">
-        <v>406</v>
-      </c>
-      <c r="E259" t="n">
-        <v>405</v>
-      </c>
-      <c r="F259" t="n">
-        <v>3324.6619</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-11541.39770405002</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>405</v>
-      </c>
-      <c r="J259" t="n">
-        <v>408</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9195,11 +9031,13 @@
         <v>-11541.39770405002</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>406</v>
+      </c>
       <c r="J260" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9234,11 +9072,13 @@
         <v>-14612.78240405002</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>406</v>
+      </c>
       <c r="J261" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9273,11 +9113,13 @@
         <v>-14485.88460405002</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>404</v>
+      </c>
       <c r="J262" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9312,11 +9154,13 @@
         <v>-14485.88460405002</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>405</v>
+      </c>
       <c r="J263" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9351,11 +9195,13 @@
         <v>-14228.88460405002</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>405</v>
+      </c>
       <c r="J264" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9390,11 +9236,13 @@
         <v>-13478.88460405002</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>406</v>
+      </c>
       <c r="J265" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9433,7 +9281,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9472,7 +9320,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9511,7 +9359,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9550,7 +9398,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9589,7 +9437,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9628,7 +9476,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9667,7 +9515,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9706,7 +9554,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9745,7 +9593,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9784,7 +9632,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9823,7 +9671,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9862,7 +9710,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9901,7 +9749,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9940,7 +9788,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9979,7 +9827,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10018,7 +9866,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10057,7 +9905,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10096,7 +9944,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10135,7 +9983,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10174,7 +10022,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10213,7 +10061,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10248,11 +10096,13 @@
         <v>-46511.09400405002</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>400</v>
+      </c>
       <c r="J287" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10291,7 +10141,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10330,7 +10180,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10369,7 +10219,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10408,7 +10258,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10447,7 +10297,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10486,7 +10336,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10525,7 +10375,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10560,13 +10410,11 @@
         <v>-50476.49830405002</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10601,13 +10449,11 @@
         <v>-50476.49830405002</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10642,13 +10488,11 @@
         <v>-49430.57630405002</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10683,13 +10527,11 @@
         <v>-49430.57630405002</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10728,7 +10570,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10767,7 +10609,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10806,7 +10648,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10845,7 +10687,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10884,7 +10726,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10919,13 +10761,11 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10960,13 +10800,11 @@
         <v>-50346.38160405002</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11001,13 +10839,11 @@
         <v>-52646.38160405002</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11042,13 +10878,11 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11083,13 +10917,11 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11124,13 +10956,11 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11165,13 +10995,11 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11206,13 +11034,11 @@
         <v>-52638.38160405002</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11247,13 +11073,11 @@
         <v>-52637.38160405002</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11288,13 +11112,11 @@
         <v>-54573.91590405002</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11329,13 +11151,11 @@
         <v>-54573.91590405002</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11370,13 +11190,11 @@
         <v>-54573.91590405002</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11411,13 +11229,11 @@
         <v>-54562.90550405002</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11452,13 +11268,11 @@
         <v>-54562.90550405002</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11493,13 +11307,11 @@
         <v>-58595.20230405002</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11534,13 +11346,11 @@
         <v>-42094.61530405002</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11579,7 +11389,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11618,7 +11428,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11657,7 +11467,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11696,7 +11506,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11735,7 +11545,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11774,7 +11584,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11809,13 +11619,11 @@
         <v>-48990.87000405002</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11854,7 +11662,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11893,7 +11701,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11932,7 +11740,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11971,7 +11779,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12010,7 +11818,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12049,7 +11857,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12088,7 +11896,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12127,7 +11935,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12166,7 +11974,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12205,7 +12013,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12244,7 +12052,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12283,7 +12091,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12322,7 +12130,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12361,7 +12169,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12396,13 +12204,11 @@
         <v>-49948.54680405002</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12441,7 +12247,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12476,13 +12282,11 @@
         <v>-46509.54680405002</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12521,7 +12325,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12560,7 +12364,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12599,7 +12403,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12638,7 +12442,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12677,7 +12481,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12716,7 +12520,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12755,7 +12559,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12794,7 +12598,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12833,7 +12637,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12872,7 +12676,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12911,7 +12715,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12946,19 +12750,19 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L355" t="n">
-        <v>1</v>
+        <v>0.9974630541871922</v>
       </c>
       <c r="M355" t="inlineStr"/>
     </row>
@@ -12988,14 +12792,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>408</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13027,14 +12825,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>408</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13063,17 +12855,11 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>408</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13102,17 +12888,11 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>408</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13144,14 +12924,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>408</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13183,14 +12957,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>408</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13222,14 +12990,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>408</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13261,14 +13023,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>408</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13300,14 +13056,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>408</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13339,14 +13089,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>408</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13378,14 +13122,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>408</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13417,14 +13155,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>408</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13456,14 +13188,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>408</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13495,14 +13221,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>408</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13534,14 +13254,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>408</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13573,14 +13287,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>408</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13612,14 +13320,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>408</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13651,14 +13353,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>408</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13690,14 +13386,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>408</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13729,14 +13419,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>408</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13768,14 +13452,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>408</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13807,14 +13485,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>408</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13846,14 +13518,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>408</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13885,14 +13551,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>408</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13924,14 +13584,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>408</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13963,14 +13617,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>408</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14002,14 +13650,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>408</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14041,14 +13683,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>408</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14080,14 +13716,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>408</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14119,14 +13749,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>408</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14158,14 +13782,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>408</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14194,17 +13812,11 @@
         <v>-30385.62730405002</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>408</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14233,17 +13845,11 @@
         <v>-20810.44240405002</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>408</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14272,17 +13878,11 @@
         <v>-20946.51210405002</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>408</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14311,17 +13911,11 @@
         <v>-21523.15700405002</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>408</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14350,17 +13944,11 @@
         <v>-22023.15700405002</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>408</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14389,17 +13977,11 @@
         <v>-22023.15700405002</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>408</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14428,17 +14010,11 @@
         <v>-22133.43230405002</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>408</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14470,14 +14046,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>408</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14509,14 +14079,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>408</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14548,14 +14112,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>408</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14587,14 +14145,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>408</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14626,14 +14178,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>408</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14665,14 +14211,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>408</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14704,14 +14244,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>408</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14743,14 +14277,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>408</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14782,14 +14310,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>408</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14821,14 +14343,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>408</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14860,14 +14376,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>408</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14899,14 +14409,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>408</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14938,14 +14442,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>408</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14977,14 +14475,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>408</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15016,14 +14508,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>408</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15055,14 +14541,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>408</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15094,14 +14574,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>408</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15133,14 +14607,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>408</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15172,14 +14640,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>408</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15211,14 +14673,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>408</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15250,14 +14706,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>408</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15289,14 +14739,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>408</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15328,14 +14772,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>408</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15367,14 +14805,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>408</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15406,14 +14838,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>408</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15445,14 +14871,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>408</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15484,14 +14904,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>408</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15523,14 +14937,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>408</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15562,14 +14970,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>408</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15601,14 +15003,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>408</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15640,14 +15036,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>408</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15679,14 +15069,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>408</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15718,14 +15102,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>408</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15757,14 +15135,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>408</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15796,14 +15168,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>408</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15835,14 +15201,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>408</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15874,14 +15234,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>408</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15913,14 +15267,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>408</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15952,14 +15300,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>408</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15991,14 +15333,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>408</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16030,14 +15366,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>408</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16069,14 +15399,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>408</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16108,14 +15432,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>408</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16147,14 +15465,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>408</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16186,14 +15498,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>408</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16225,14 +15531,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>408</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16264,14 +15564,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>408</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16300,17 +15594,11 @@
         <v>-3161.794593640027</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>408</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16339,17 +15627,11 @@
         <v>-3161.794593640027</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>408</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16378,17 +15660,11 @@
         <v>877.3969041799737</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>408</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16417,17 +15693,11 @@
         <v>716.6761041799737</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>408</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16456,17 +15726,11 @@
         <v>877.0533671299736</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>408</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16495,17 +15759,11 @@
         <v>-1921.990832870026</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>408</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16537,14 +15795,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>408</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16576,14 +15828,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>408</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16615,14 +15861,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>408</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16654,14 +15894,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>408</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16693,14 +15927,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>408</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16732,14 +15960,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>408</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16771,14 +15993,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>408</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16807,17 +16023,11 @@
         <v>-1427.483132870026</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>408</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16849,14 +16059,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>408</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16888,14 +16092,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>408</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16927,14 +16125,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>408</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16966,14 +16158,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>408</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17005,14 +16191,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>408</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17044,14 +16224,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>408</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17083,14 +16257,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>408</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17122,14 +16290,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>408</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17161,14 +16323,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>408</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17200,14 +16356,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>408</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17239,14 +16389,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>408</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17278,14 +16422,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>408</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17317,14 +16455,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>408</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17356,14 +16488,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>408</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17395,14 +16521,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>408</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17434,14 +16554,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>408</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17473,14 +16587,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>408</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17512,14 +16620,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>408</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17551,14 +16653,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>408</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17590,14 +16686,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>408</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17629,14 +16719,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>408</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17668,14 +16752,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>408</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17707,14 +16785,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>408</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17746,14 +16818,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>408</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17785,14 +16851,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>408</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17824,14 +16884,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>408</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17863,14 +16917,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>408</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17899,19 +16947,13 @@
         <v>52528.06386712998</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>408</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
-        <v>1.019509803921569</v>
+        <v>1</v>
       </c>
       <c r="M482" t="inlineStr"/>
     </row>
@@ -17938,7 +16980,7 @@
         <v>52528.06386712998</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17971,7 +17013,7 @@
         <v>43965.60536712998</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18004,7 +17046,7 @@
         <v>53994.14886712998</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18037,7 +17079,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18070,7 +17112,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18169,7 +17211,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18202,7 +17244,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18268,7 +17310,7 @@
         <v>50199.20946712998</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18301,7 +17343,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18334,7 +17376,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18400,7 +17442,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18433,7 +17475,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18466,7 +17508,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18499,7 +17541,7 @@
         <v>52703.71726712998</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18532,7 +17574,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18565,7 +17607,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18598,7 +17640,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18631,7 +17673,7 @@
         <v>56554.27136712998</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18664,7 +17706,7 @@
         <v>56554.27136712998</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18697,7 +17739,7 @@
         <v>57052.27076712998</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18730,7 +17772,7 @@
         <v>51829.27086712998</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18763,7 +17805,7 @@
         <v>51830.27086712998</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18796,7 +17838,7 @@
         <v>54729.06996712998</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18829,7 +17871,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18862,7 +17904,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18895,7 +17937,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18928,7 +17970,7 @@
         <v>61108.06996712998</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19104,6 +18146,6 @@
       <c r="M518" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest MTL.xlsx
+++ b/BackTest/2019-10-15 BackTest MTL.xlsx
@@ -1243,7 +1243,7 @@
         <v>30635.90007244999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>33628.40007244999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>19020.12957244998</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>19020.12957244998</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>19020.12957244998</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>18879.07977244998</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>18639.07977244998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>19210.03627244998</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-48460.60860405001</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-45932.88040405001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-50189.81530405001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-50214.75280405001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-50210.75280405001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6589,14 +6589,10 @@
         <v>-73927.16790405</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>404</v>
-      </c>
-      <c r="J188" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
@@ -6626,19 +6622,11 @@
         <v>-73627.16790405</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>405</v>
-      </c>
-      <c r="J189" t="n">
-        <v>404</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6670,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>404</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7729,10 +7711,14 @@
         <v>-76252.44340405001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>408</v>
+      </c>
+      <c r="J222" t="n">
+        <v>408</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
@@ -7762,11 +7748,19 @@
         <v>-82969.60840405</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>409</v>
+      </c>
+      <c r="J223" t="n">
+        <v>408</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7795,11 +7789,19 @@
         <v>-86843.91510405</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>408</v>
+      </c>
+      <c r="J224" t="n">
+        <v>408</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7828,10 +7830,14 @@
         <v>-86791.91510405</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>407</v>
+      </c>
+      <c r="J225" t="n">
+        <v>407</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
@@ -7861,11 +7867,19 @@
         <v>-86833.51580405</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>408</v>
+      </c>
+      <c r="J226" t="n">
+        <v>407</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7894,11 +7908,19 @@
         <v>-86833.51580405</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>407</v>
+      </c>
+      <c r="J227" t="n">
+        <v>407</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7927,10 +7949,14 @@
         <v>-81769.17700405</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>407</v>
+      </c>
+      <c r="J228" t="n">
+        <v>407</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
@@ -7960,11 +7986,19 @@
         <v>-81769.17700405</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>408</v>
+      </c>
+      <c r="J229" t="n">
+        <v>407</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7993,11 +8027,19 @@
         <v>-82380.34580405</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>408</v>
+      </c>
+      <c r="J230" t="n">
+        <v>407</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8026,11 +8068,19 @@
         <v>-81093.49780405</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>407</v>
+      </c>
+      <c r="J231" t="n">
+        <v>407</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8059,11 +8109,19 @@
         <v>-81850.89680405</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>408</v>
+      </c>
+      <c r="J232" t="n">
+        <v>407</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8092,11 +8150,19 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>407</v>
+      </c>
+      <c r="J233" t="n">
+        <v>407</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8125,11 +8191,19 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>408</v>
+      </c>
+      <c r="J234" t="n">
+        <v>407</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8158,11 +8232,19 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>408</v>
+      </c>
+      <c r="J235" t="n">
+        <v>407</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8191,11 +8273,19 @@
         <v>-80955.50570405001</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>408</v>
+      </c>
+      <c r="J236" t="n">
+        <v>407</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8224,11 +8314,19 @@
         <v>-82898.75440405001</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>408</v>
+      </c>
+      <c r="J237" t="n">
+        <v>407</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8257,11 +8355,19 @@
         <v>-81556.75450405001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>406</v>
+      </c>
+      <c r="J238" t="n">
+        <v>407</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8290,11 +8396,19 @@
         <v>-78819.37620405002</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>409</v>
+      </c>
+      <c r="J239" t="n">
+        <v>407</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8323,11 +8437,19 @@
         <v>-78857.02940405002</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>410</v>
+      </c>
+      <c r="J240" t="n">
+        <v>407</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8356,11 +8478,19 @@
         <v>-76285.08950405002</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>408</v>
+      </c>
+      <c r="J241" t="n">
+        <v>407</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8389,11 +8519,19 @@
         <v>-77218.51830405001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>409</v>
+      </c>
+      <c r="J242" t="n">
+        <v>407</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8422,11 +8560,19 @@
         <v>-77218.51830405001</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>408</v>
+      </c>
+      <c r="J243" t="n">
+        <v>407</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8455,11 +8601,19 @@
         <v>-83603.14850405001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>408</v>
+      </c>
+      <c r="J244" t="n">
+        <v>407</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8488,11 +8642,19 @@
         <v>-83603.14850405001</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>407</v>
+      </c>
+      <c r="J245" t="n">
+        <v>407</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8521,11 +8683,19 @@
         <v>-86178.65400405001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>407</v>
+      </c>
+      <c r="J246" t="n">
+        <v>407</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8554,11 +8724,19 @@
         <v>-86178.65400405001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>406</v>
+      </c>
+      <c r="J247" t="n">
+        <v>407</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8587,11 +8765,19 @@
         <v>-86178.65400405001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>406</v>
+      </c>
+      <c r="J248" t="n">
+        <v>407</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8620,11 +8806,19 @@
         <v>-90195.45400405001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>406</v>
+      </c>
+      <c r="J249" t="n">
+        <v>407</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8653,11 +8847,19 @@
         <v>-19698.59140405002</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>405</v>
+      </c>
+      <c r="J250" t="n">
+        <v>407</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8689,8 +8891,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>407</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8722,8 +8930,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>407</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8752,15 +8966,17 @@
         <v>-26530.08710405002</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>404</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
+        <v>407</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8789,17 +9005,15 @@
         <v>-14366.05960405002</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L254" t="n">
@@ -8830,17 +9044,15 @@
         <v>-14366.05960405002</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L255" t="n">
@@ -8871,15 +9083,17 @@
         <v>-14866.05960405002</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>406</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
+        <v>407</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8908,17 +9122,15 @@
         <v>-14866.05960405002</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L257" t="n">
@@ -8949,17 +9161,15 @@
         <v>-14866.05960405002</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L258" t="n">
@@ -8990,17 +9200,15 @@
         <v>-11541.39770405002</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L259" t="n">
@@ -9031,13 +9239,11 @@
         <v>-11541.39770405002</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9072,13 +9278,11 @@
         <v>-14612.78240405002</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9113,13 +9317,11 @@
         <v>-14485.88460405002</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9154,13 +9356,11 @@
         <v>-14485.88460405002</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9195,13 +9395,11 @@
         <v>-14228.88460405002</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9236,13 +9434,11 @@
         <v>-13478.88460405002</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9281,7 +9477,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9320,7 +9516,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9359,7 +9555,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9398,7 +9594,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9437,7 +9633,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9476,7 +9672,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9515,7 +9711,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9554,7 +9750,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9593,7 +9789,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9632,7 +9828,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9671,7 +9867,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9710,7 +9906,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9749,7 +9945,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9788,7 +9984,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9827,7 +10023,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9866,7 +10062,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9905,7 +10101,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -9944,7 +10140,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -9983,7 +10179,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10022,7 +10218,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10061,7 +10257,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10096,13 +10292,11 @@
         <v>-46511.09400405002</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10141,7 +10335,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10180,7 +10374,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10219,7 +10413,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10258,7 +10452,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10297,7 +10491,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10336,7 +10530,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10375,7 +10569,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10414,7 +10608,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10453,7 +10647,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10492,7 +10686,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10531,7 +10725,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10570,7 +10764,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10609,7 +10803,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10648,7 +10842,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10687,7 +10881,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10726,7 +10920,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10765,7 +10959,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10804,7 +10998,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10843,7 +11037,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10882,7 +11076,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10921,7 +11115,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10960,7 +11154,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10999,7 +11193,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11038,7 +11232,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11077,7 +11271,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11116,7 +11310,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11155,7 +11349,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11190,11 +11384,13 @@
         <v>-54573.91590405002</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>399</v>
+      </c>
       <c r="J315" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11229,11 +11425,13 @@
         <v>-54562.90550405002</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>399</v>
+      </c>
       <c r="J316" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11268,11 +11466,13 @@
         <v>-54562.90550405002</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>401</v>
+      </c>
       <c r="J317" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11311,7 +11511,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11350,7 +11550,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11389,7 +11589,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11428,7 +11628,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11467,7 +11667,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11506,7 +11706,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11545,7 +11745,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11584,7 +11784,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11623,7 +11823,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11662,7 +11862,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11701,7 +11901,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11740,7 +11940,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11779,7 +11979,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11818,7 +12018,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11857,7 +12057,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11896,7 +12096,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11935,7 +12135,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11970,11 +12170,13 @@
         <v>-49207.13630405001</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>405</v>
+      </c>
       <c r="J335" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12009,11 +12211,13 @@
         <v>-49207.13630405001</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>403</v>
+      </c>
       <c r="J336" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12048,11 +12252,13 @@
         <v>-46703.67130405002</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>403</v>
+      </c>
       <c r="J337" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12087,11 +12293,13 @@
         <v>-46703.67130405002</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>404</v>
+      </c>
       <c r="J338" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12126,11 +12334,13 @@
         <v>-46703.67130405002</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>404</v>
+      </c>
       <c r="J339" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12165,11 +12375,13 @@
         <v>-46703.67130405002</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>404</v>
+      </c>
       <c r="J340" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12204,11 +12416,13 @@
         <v>-49948.54680405002</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>404</v>
+      </c>
       <c r="J341" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12243,11 +12457,13 @@
         <v>-49948.54680405002</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>402</v>
+      </c>
       <c r="J342" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12282,11 +12498,13 @@
         <v>-46509.54680405002</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>402</v>
+      </c>
       <c r="J343" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12321,11 +12539,13 @@
         <v>-46509.54680405002</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>405</v>
+      </c>
       <c r="J344" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12360,11 +12580,13 @@
         <v>-46787.54680405002</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>405</v>
+      </c>
       <c r="J345" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12399,11 +12621,13 @@
         <v>-46787.54680405002</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>404</v>
+      </c>
       <c r="J346" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12438,11 +12662,13 @@
         <v>-44687.54680405002</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>404</v>
+      </c>
       <c r="J347" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12477,11 +12703,13 @@
         <v>-44687.54680405002</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>405</v>
+      </c>
       <c r="J348" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12516,11 +12744,13 @@
         <v>-49548.52960405002</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>405</v>
+      </c>
       <c r="J349" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12555,11 +12785,13 @@
         <v>-49432.52960405002</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>402</v>
+      </c>
       <c r="J350" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12594,11 +12826,13 @@
         <v>-49418.98290405002</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>405</v>
+      </c>
       <c r="J351" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12633,11 +12867,13 @@
         <v>-49418.98290405002</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>406</v>
+      </c>
       <c r="J352" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12676,7 +12912,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12715,7 +12951,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12750,19 +12986,19 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L355" t="n">
-        <v>0.9974630541871922</v>
+        <v>1</v>
       </c>
       <c r="M355" t="inlineStr"/>
     </row>
@@ -12792,8 +13028,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>407</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12825,8 +13067,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>407</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12855,11 +13103,17 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>407</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12888,11 +13142,17 @@
         <v>-60135.42010405002</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>407</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12924,8 +13184,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>407</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12957,8 +13223,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>407</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12990,8 +13262,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>407</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13023,8 +13301,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>407</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13056,8 +13340,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>407</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13089,8 +13379,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>407</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13122,8 +13418,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>407</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13155,8 +13457,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>407</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13188,8 +13496,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>407</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13221,8 +13535,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>407</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13254,8 +13574,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>407</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13287,8 +13613,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>407</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13320,8 +13652,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>407</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13353,8 +13691,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>407</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13386,8 +13730,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>407</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13419,8 +13769,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>407</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13452,8 +13808,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>407</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13485,8 +13847,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>407</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13518,8 +13886,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>407</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13551,8 +13925,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>407</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13584,8 +13964,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>407</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13617,8 +14003,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>407</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13650,8 +14042,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>407</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13683,8 +14081,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>407</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13716,8 +14120,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>407</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13749,8 +14159,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>407</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13782,8 +14198,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>407</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13812,11 +14234,17 @@
         <v>-30385.62730405002</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>407</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13845,11 +14273,17 @@
         <v>-20810.44240405002</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>407</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13878,11 +14312,17 @@
         <v>-20946.51210405002</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>407</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13911,11 +14351,17 @@
         <v>-21523.15700405002</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>407</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13944,11 +14390,17 @@
         <v>-22023.15700405002</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>407</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13977,11 +14429,17 @@
         <v>-22023.15700405002</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>407</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14010,11 +14468,17 @@
         <v>-22133.43230405002</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>407</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14046,8 +14510,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>407</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14079,8 +14549,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>407</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14112,8 +14588,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>407</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14145,8 +14627,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>407</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14178,8 +14666,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>407</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14211,8 +14705,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>407</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14244,8 +14744,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>407</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14277,8 +14783,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>407</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14310,8 +14822,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>407</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14343,8 +14861,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>407</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14376,8 +14900,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>407</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14409,8 +14939,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>407</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14442,8 +14978,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>407</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14475,8 +15017,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>407</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14508,8 +15056,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>407</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14541,8 +15095,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>407</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14574,8 +15134,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>407</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14607,8 +15173,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>407</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14640,8 +15212,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>407</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14673,8 +15251,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>407</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14706,8 +15290,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>407</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14739,8 +15329,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>407</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14772,8 +15368,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>407</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14805,8 +15407,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>407</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14838,8 +15446,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>407</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14871,8 +15485,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>407</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14904,8 +15524,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>407</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14937,8 +15563,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>407</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14970,8 +15602,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>407</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15003,8 +15641,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>407</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15036,8 +15680,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>407</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15069,8 +15719,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>407</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15102,8 +15758,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>407</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15135,8 +15797,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>407</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15168,8 +15836,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>407</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15201,8 +15875,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>407</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15234,8 +15914,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>407</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15267,8 +15953,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>407</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15300,8 +15992,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>407</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15333,8 +16031,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>407</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15366,8 +16070,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>407</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15399,8 +16109,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>407</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15432,8 +16148,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>407</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15465,8 +16187,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>407</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15498,8 +16226,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>407</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15531,8 +16265,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>407</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15564,8 +16304,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>407</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15594,11 +16340,17 @@
         <v>-3161.794593640027</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>407</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15627,11 +16379,17 @@
         <v>-3161.794593640027</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>407</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15660,11 +16418,17 @@
         <v>877.3969041799737</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>407</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15693,11 +16457,17 @@
         <v>716.6761041799737</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>407</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15726,11 +16496,17 @@
         <v>877.0533671299736</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>407</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15759,11 +16535,17 @@
         <v>-1921.990832870026</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>407</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15795,8 +16577,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>407</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15828,8 +16616,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>407</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15861,8 +16655,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>407</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15894,8 +16694,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>407</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15927,8 +16733,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>407</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15960,8 +16772,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>407</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15993,8 +16811,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>407</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16023,11 +16847,17 @@
         <v>-1427.483132870026</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>407</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16059,8 +16889,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>407</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16092,8 +16928,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>407</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16125,8 +16967,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>407</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16158,8 +17006,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>407</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16191,8 +17045,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>407</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16224,8 +17084,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>407</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16257,8 +17123,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>407</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16290,8 +17162,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>407</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16323,8 +17201,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>407</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16356,8 +17240,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>407</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16389,8 +17279,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>407</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16422,8 +17318,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>407</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16455,8 +17357,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>407</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16488,8 +17396,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>407</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16521,8 +17435,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>407</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16554,8 +17474,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>407</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16587,8 +17513,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>407</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16620,8 +17552,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>407</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16653,8 +17591,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>407</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16686,8 +17630,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>407</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16719,8 +17669,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>407</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16752,8 +17708,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>407</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16785,8 +17747,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>407</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16818,8 +17786,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>407</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16851,8 +17825,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>407</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16884,8 +17864,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>407</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16914,13 +17900,19 @@
         <v>48204.04776712998</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>407</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L481" t="n">
-        <v>1</v>
+        <v>1.019570024570025</v>
       </c>
       <c r="M481" t="inlineStr"/>
     </row>
@@ -16947,7 +17939,7 @@
         <v>52528.06386712998</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16980,7 +17972,7 @@
         <v>52528.06386712998</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17013,7 +18005,7 @@
         <v>43965.60536712998</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17046,7 +18038,7 @@
         <v>53994.14886712998</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17079,7 +18071,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17112,7 +18104,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17145,7 +18137,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17178,7 +18170,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17211,7 +18203,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17244,7 +18236,7 @@
         <v>53844.14886712998</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17277,7 +18269,7 @@
         <v>50199.20946712998</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17310,7 +18302,7 @@
         <v>50199.20946712998</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17343,7 +18335,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17376,7 +18368,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17409,7 +18401,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17442,7 +18434,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17475,7 +18467,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17508,7 +18500,7 @@
         <v>52229.02006712998</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17541,7 +18533,7 @@
         <v>52703.71726712998</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17574,7 +18566,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17607,7 +18599,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17640,7 +18632,7 @@
         <v>50703.71726712998</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17673,7 +18665,7 @@
         <v>56554.27136712998</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17706,7 +18698,7 @@
         <v>56554.27136712998</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17739,7 +18731,7 @@
         <v>57052.27076712998</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17772,7 +18764,7 @@
         <v>51829.27086712998</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17805,7 +18797,7 @@
         <v>51830.27086712998</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17838,7 +18830,7 @@
         <v>54729.06996712998</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17871,7 +18863,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17904,7 +18896,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17937,7 +18929,7 @@
         <v>54328.06996712998</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17970,7 +18962,7 @@
         <v>61108.06996712998</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18003,7 +18995,7 @@
         <v>62836.83896712998</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18036,7 +19028,7 @@
         <v>62819.83896712998</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18069,7 +19061,7 @@
         <v>65854.33866712998</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18102,7 +19094,7 @@
         <v>65854.33866712998</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18135,7 +19127,7 @@
         <v>60526.28496712998</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
